--- a/Data files/Raw data files/Ethnic_Composition.xlsx
+++ b/Data files/Raw data files/Ethnic_Composition.xlsx
@@ -1,22 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10114"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10928"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/timmyballesteros/R/conflict-relapse/Data files/Raw data files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{601FC934-6D61-9A4E-8FF0-4433838CEA63}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CDAF032-07DE-B84B-A533-84CC35605510}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4060" yWindow="3160" windowWidth="27240" windowHeight="16440" activeTab="2" xr2:uid="{91BA76FC-B4D5-9B4A-8EC6-C6C3BD30A90A}"/>
+    <workbookView xWindow="4060" yWindow="3160" windowWidth="27240" windowHeight="16440" activeTab="7" xr2:uid="{91BA76FC-B4D5-9B4A-8EC6-C6C3BD30A90A}"/>
   </bookViews>
   <sheets>
     <sheet name="SRB" sheetId="2" r:id="rId1"/>
     <sheet name="KSV" sheetId="3" r:id="rId2"/>
     <sheet name="MNE" sheetId="4" r:id="rId3"/>
     <sheet name="SSD" sheetId="1" r:id="rId4"/>
+    <sheet name="CMR" sheetId="5" r:id="rId5"/>
+    <sheet name="FRA" sheetId="6" r:id="rId6"/>
+    <sheet name="SUR" sheetId="7" r:id="rId7"/>
+    <sheet name="MOZ" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="477" uniqueCount="182">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="568" uniqueCount="248">
   <si>
     <t>Ethnic Group</t>
   </si>
@@ -585,13 +589,211 @@
   </si>
   <si>
     <t>Žabljak</t>
+  </si>
+  <si>
+    <t>Group</t>
+  </si>
+  <si>
+    <t>Percent</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Adamawa-Ubangi</t>
+  </si>
+  <si>
+    <t>Bamileke-Bamu</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Biu-Mandara</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Arab-Choa/Hausa/Kanuri</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Beti/Bassa Mbam</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Grassfields</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Cotier/Ngoe/Oroko</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Southwestern Bantu</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Kako/Meka</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> foreign/other ethnic group</t>
+  </si>
+  <si>
+    <t>Ethnicity</t>
+  </si>
+  <si>
+    <t>French people</t>
+  </si>
+  <si>
+    <t>Algerians</t>
+  </si>
+  <si>
+    <t>Moroccans</t>
+  </si>
+  <si>
+    <t>Catalans</t>
+  </si>
+  <si>
+    <t>Tunisians</t>
+  </si>
+  <si>
+    <t>Lebanese people</t>
+  </si>
+  <si>
+    <t>Afro-French</t>
+  </si>
+  <si>
+    <t>Portuguese</t>
+  </si>
+  <si>
+    <t>Poles</t>
+  </si>
+  <si>
+    <t>Armenians</t>
+  </si>
+  <si>
+    <t>Jews</t>
+  </si>
+  <si>
+    <t>Chinese</t>
+  </si>
+  <si>
+    <t>Spaniards</t>
+  </si>
+  <si>
+    <t>Vietnamese</t>
+  </si>
+  <si>
+    <t>English people</t>
+  </si>
+  <si>
+    <t>Laotians</t>
+  </si>
+  <si>
+    <t>Note</t>
+  </si>
+  <si>
+    <t>2.48-2.92% - average used.</t>
+  </si>
+  <si>
+    <t>1.46-8.03% - average used.</t>
+  </si>
+  <si>
+    <t>Census 1921</t>
+  </si>
+  <si>
+    <t>East Indian</t>
+  </si>
+  <si>
+    <t>Maroons</t>
+  </si>
+  <si>
+    <t>Creole</t>
+  </si>
+  <si>
+    <t>Javanese</t>
+  </si>
+  <si>
+    <t>Mixed</t>
+  </si>
+  <si>
+    <t>Unknown</t>
+  </si>
+  <si>
+    <t>No answer</t>
+  </si>
+  <si>
+    <t>Census 1950</t>
+  </si>
+  <si>
+    <t>Census 1964</t>
+  </si>
+  <si>
+    <t>Census 1972</t>
+  </si>
+  <si>
+    <t>Census 1980</t>
+  </si>
+  <si>
+    <t>Census 2004</t>
+  </si>
+  <si>
+    <t>Census 2012</t>
+  </si>
+  <si>
+    <t>Amerindian</t>
+  </si>
+  <si>
+    <t>White</t>
+  </si>
+  <si>
+    <t>Emakhuwa</t>
+  </si>
+  <si>
+    <t>Xichangana</t>
+  </si>
+  <si>
+    <t>Cinyanja</t>
+  </si>
+  <si>
+    <t>Elomwe</t>
+  </si>
+  <si>
+    <t>Cisena</t>
+  </si>
+  <si>
+    <t>Echuwabo</t>
+  </si>
+  <si>
+    <t>Cindau</t>
+  </si>
+  <si>
+    <t>Xitswa</t>
+  </si>
+  <si>
+    <t>Other Mozambican languages</t>
+  </si>
+  <si>
+    <t>Other foreign languages</t>
+  </si>
+  <si>
+    <t>None</t>
+  </si>
+  <si>
+    <t>Language</t>
+  </si>
+  <si>
+    <t>Number of speakers (L1)</t>
+  </si>
+  <si>
+    <t>Percentage of population</t>
+  </si>
+  <si>
+    <t>Occitans (Occitania)</t>
+  </si>
+  <si>
+    <t>Bretons (Brittany)</t>
+  </si>
+  <si>
+    <t>Corsicans (Corsica)</t>
+  </si>
+  <si>
+    <t>Basques (Euskal Herria)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -625,6 +827,19 @@
       <name val="Aptos Narrow"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Aptos Narrow"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF333333"/>
+      <name val="Aptos Narrow"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -646,7 +861,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -655,10 +870,14 @@
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="10" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="10" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1008,31 +1227,31 @@
       <c r="A1" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="D1" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="F1" s="9" t="s">
+      <c r="F1" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="H1" s="9" t="s">
+      <c r="H1" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="J1" s="9" t="s">
+      <c r="J1" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="L1" s="9" t="s">
+      <c r="L1" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="N1" s="10" t="s">
+      <c r="N1" s="6" t="s">
         <v>107</v>
       </c>
-      <c r="P1" s="10" t="s">
+      <c r="P1" s="6" t="s">
         <v>106</v>
       </c>
-      <c r="R1" s="10" t="s">
+      <c r="R1" s="6" t="s">
         <v>105</v>
       </c>
     </row>
@@ -1093,7 +1312,7 @@
       </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A3" s="8" t="s">
+      <c r="A3" t="s">
         <v>88</v>
       </c>
       <c r="B3" s="4">
@@ -1152,7 +1371,7 @@
       </c>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A4" s="8" t="s">
+      <c r="A4" t="s">
         <v>89</v>
       </c>
       <c r="B4" s="4">
@@ -1211,7 +1430,7 @@
       </c>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A5" s="8" t="s">
+      <c r="A5" t="s">
         <v>90</v>
       </c>
       <c r="B5" s="4">
@@ -1270,7 +1489,7 @@
       </c>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A6" s="8" t="s">
+      <c r="A6" t="s">
         <v>91</v>
       </c>
       <c r="B6" s="4">
@@ -1293,7 +1512,7 @@
       </c>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A7" s="8" t="s">
+      <c r="A7" t="s">
         <v>92</v>
       </c>
       <c r="B7" s="4">
@@ -1352,7 +1571,7 @@
       </c>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A8" s="8" t="s">
+      <c r="A8" t="s">
         <v>93</v>
       </c>
       <c r="B8" s="4">
@@ -1411,7 +1630,7 @@
       </c>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A9" s="8" t="s">
+      <c r="A9" t="s">
         <v>94</v>
       </c>
       <c r="B9" s="4">
@@ -1470,7 +1689,7 @@
       </c>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A10" s="8" t="s">
+      <c r="A10" t="s">
         <v>95</v>
       </c>
       <c r="B10" s="4">
@@ -1529,7 +1748,7 @@
       </c>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A11" s="8" t="s">
+      <c r="A11" t="s">
         <v>96</v>
       </c>
       <c r="B11" s="3"/>
@@ -1580,7 +1799,7 @@
       </c>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A12" s="8" t="s">
+      <c r="A12" t="s">
         <v>97</v>
       </c>
       <c r="B12" s="4">
@@ -1639,7 +1858,7 @@
       </c>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A13" s="8" t="s">
+      <c r="A13" t="s">
         <v>98</v>
       </c>
       <c r="B13" s="4">
@@ -1698,7 +1917,7 @@
       </c>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A14" s="8" t="s">
+      <c r="A14" t="s">
         <v>99</v>
       </c>
       <c r="B14" s="4">
@@ -1757,7 +1976,7 @@
       </c>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A15" s="8" t="s">
+      <c r="A15" t="s">
         <v>100</v>
       </c>
       <c r="B15" s="4">
@@ -1816,7 +2035,7 @@
       </c>
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A16" s="8" t="s">
+      <c r="A16" t="s">
         <v>101</v>
       </c>
       <c r="B16" s="4">
@@ -1875,7 +2094,7 @@
       </c>
     </row>
     <row r="17" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A17" s="8" t="s">
+      <c r="A17" t="s">
         <v>102</v>
       </c>
       <c r="B17" s="4">
@@ -1987,25 +2206,25 @@
       <c r="A1" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="D1" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="F1" s="9" t="s">
+      <c r="F1" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="H1" s="9" t="s">
+      <c r="H1" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="J1" s="9" t="s">
+      <c r="J1" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="L1" s="9" t="s">
+      <c r="L1" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="N1" s="9" t="s">
+      <c r="N1" s="2" t="s">
         <v>114</v>
       </c>
     </row>
@@ -2054,7 +2273,7 @@
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A3" s="8" t="s">
+      <c r="A3" t="s">
         <v>93</v>
       </c>
       <c r="B3" s="4">
@@ -2101,7 +2320,7 @@
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A4" s="8" t="s">
+      <c r="A4" t="s">
         <v>88</v>
       </c>
       <c r="B4" s="4">
@@ -2148,7 +2367,7 @@
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A5" s="8" t="s">
+      <c r="A5" t="s">
         <v>97</v>
       </c>
       <c r="B5" s="4">
@@ -2191,7 +2410,7 @@
       <c r="O5" s="3"/>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A6" s="8" t="s">
+      <c r="A6" t="s">
         <v>115</v>
       </c>
       <c r="B6" s="4">
@@ -2234,7 +2453,7 @@
       <c r="O6" s="3"/>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A7" s="8" t="s">
+      <c r="A7" t="s">
         <v>90</v>
       </c>
       <c r="B7" s="4">
@@ -2245,7 +2464,7 @@
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A8" s="8" t="s">
+      <c r="A8" t="s">
         <v>116</v>
       </c>
       <c r="B8" s="4">
@@ -2256,7 +2475,7 @@
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A9" s="8" t="s">
+      <c r="A9" t="s">
         <v>94</v>
       </c>
       <c r="B9" s="4">
@@ -2299,7 +2518,7 @@
       <c r="O9" s="3"/>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A10" s="8" t="s">
+      <c r="A10" t="s">
         <v>96</v>
       </c>
       <c r="B10" s="3"/>
@@ -2334,7 +2553,7 @@
       <c r="O10" s="3"/>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A11" s="8" t="s">
+      <c r="A11" t="s">
         <v>117</v>
       </c>
       <c r="B11" s="4">
@@ -2381,7 +2600,7 @@
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A12" s="8" t="s">
+      <c r="A12" t="s">
         <v>118</v>
       </c>
       <c r="B12" s="4">
@@ -2392,7 +2611,7 @@
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A13" s="8" t="s">
+      <c r="A13" t="s">
         <v>119</v>
       </c>
       <c r="B13" s="4">
@@ -2403,7 +2622,7 @@
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A14" s="8" t="s">
+      <c r="A14" t="s">
         <v>120</v>
       </c>
       <c r="B14" s="4">
@@ -2450,7 +2669,7 @@
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A15" s="8" t="s">
+      <c r="A15" t="s">
         <v>100</v>
       </c>
       <c r="B15" s="3">
@@ -2570,7 +2789,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78EDBEB6-E9EE-914A-A24B-F6FE51D1FA2E}">
   <dimension ref="A1:BD23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Y1" workbookViewId="0">
+    <sheetView topLeftCell="J1" workbookViewId="0">
       <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
@@ -2744,163 +2963,163 @@
       <c r="C2" s="3">
         <v>278865</v>
       </c>
-      <c r="D2" s="11">
+      <c r="D2" s="8">
         <v>0.45</v>
       </c>
       <c r="E2" s="3">
         <v>178110</v>
       </c>
-      <c r="F2" s="11">
+      <c r="F2" s="8">
         <v>0.28699999999999998</v>
       </c>
       <c r="G2" s="3">
         <v>53605</v>
       </c>
-      <c r="H2" s="11">
+      <c r="H2" s="8">
         <v>8.5999999999999993E-2</v>
       </c>
       <c r="I2" s="3">
         <v>20537</v>
       </c>
-      <c r="J2" s="11">
+      <c r="J2" s="8">
         <v>3.3000000000000002E-2</v>
       </c>
       <c r="K2" s="3">
         <v>30439</v>
       </c>
-      <c r="L2" s="11">
+      <c r="L2" s="8">
         <v>4.9000000000000002E-2</v>
       </c>
       <c r="M2" s="3">
         <v>6251</v>
       </c>
-      <c r="N2" s="11">
+      <c r="N2" s="8">
         <v>0.01</v>
       </c>
       <c r="O2" s="3">
         <v>6021</v>
       </c>
-      <c r="P2" s="11">
+      <c r="P2" s="8">
         <v>0.01</v>
       </c>
       <c r="Q2" s="3">
         <v>2054</v>
       </c>
-      <c r="R2" s="11">
+      <c r="R2" s="8">
         <v>3.0000000000000001E-3</v>
       </c>
       <c r="S2" s="3">
         <v>30170</v>
       </c>
-      <c r="T2" s="11">
+      <c r="T2" s="8">
         <v>4.9000000000000002E-2</v>
       </c>
       <c r="U2" s="3">
         <v>3358</v>
       </c>
-      <c r="V2" s="11">
+      <c r="V2" s="8">
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="W2" s="3">
         <v>1202</v>
       </c>
-      <c r="X2" s="11">
+      <c r="X2" s="8">
         <v>2E-3</v>
       </c>
       <c r="Y2" s="3">
         <v>1154</v>
       </c>
-      <c r="Z2" s="11">
+      <c r="Z2" s="8">
         <v>2E-3</v>
       </c>
       <c r="AA2" s="3">
         <v>427</v>
       </c>
-      <c r="AB2" s="11">
+      <c r="AB2" s="8">
         <v>1E-3</v>
       </c>
       <c r="AC2" s="3">
         <v>257</v>
       </c>
-      <c r="AD2" s="11">
+      <c r="AD2" s="8">
         <v>0</v>
       </c>
       <c r="AE2" s="3">
         <v>197</v>
       </c>
-      <c r="AF2" s="11">
+      <c r="AF2" s="8">
         <v>0</v>
       </c>
       <c r="AG2" s="3">
         <v>183</v>
       </c>
-      <c r="AH2" s="11">
+      <c r="AH2" s="8">
         <v>0</v>
       </c>
       <c r="AI2" s="3">
         <v>181</v>
       </c>
-      <c r="AJ2" s="11">
+      <c r="AJ2" s="8">
         <v>0</v>
       </c>
       <c r="AK2" s="3">
         <v>175</v>
       </c>
-      <c r="AL2" s="11">
+      <c r="AL2" s="8">
         <v>0</v>
       </c>
       <c r="AM2" s="3">
         <v>104</v>
       </c>
-      <c r="AN2" s="11">
+      <c r="AN2" s="8">
         <v>0</v>
       </c>
       <c r="AO2" s="3">
         <v>2103</v>
       </c>
-      <c r="AP2" s="11">
+      <c r="AP2" s="8">
         <v>3.0000000000000001E-3</v>
       </c>
       <c r="AQ2" s="3">
         <v>1833</v>
       </c>
-      <c r="AR2" s="11">
+      <c r="AR2" s="8">
         <v>3.0000000000000001E-3</v>
       </c>
       <c r="AS2" s="3">
         <v>946</v>
       </c>
-      <c r="AT2" s="11">
+      <c r="AT2" s="8">
         <v>2E-3</v>
       </c>
       <c r="AU2" s="3">
         <v>900</v>
       </c>
-      <c r="AV2" s="11">
+      <c r="AV2" s="8">
         <v>1E-3</v>
       </c>
       <c r="AW2" s="3">
         <v>354</v>
       </c>
-      <c r="AX2" s="11">
+      <c r="AX2" s="8">
         <v>1E-3</v>
       </c>
       <c r="AY2" s="3">
         <v>337</v>
       </c>
-      <c r="AZ2" s="11">
+      <c r="AZ2" s="8">
         <v>1E-3</v>
       </c>
       <c r="BA2" s="3">
         <v>135</v>
       </c>
-      <c r="BB2" s="11">
+      <c r="BB2" s="8">
         <v>0</v>
       </c>
       <c r="BC2" s="3">
         <v>131</v>
       </c>
-      <c r="BD2" s="11">
+      <c r="BD2" s="8">
         <v>0</v>
       </c>
     </row>
@@ -2914,13 +3133,13 @@
       <c r="C3" s="3">
         <v>1646</v>
       </c>
-      <c r="D3" s="11">
+      <c r="D3" s="8">
         <v>0.32500000000000001</v>
       </c>
       <c r="E3" s="3">
         <v>3137</v>
       </c>
-      <c r="F3" s="11">
+      <c r="F3" s="8">
         <v>0.61899999999999999</v>
       </c>
       <c r="G3" s="3" t="s">
@@ -2932,13 +3151,13 @@
       <c r="I3" s="3">
         <v>7</v>
       </c>
-      <c r="J3" s="11">
+      <c r="J3" s="8">
         <v>1E-3</v>
       </c>
       <c r="K3" s="3">
         <v>1</v>
       </c>
-      <c r="L3" s="11">
+      <c r="L3" s="8">
         <v>2E-3</v>
       </c>
       <c r="M3" s="3" t="s">
@@ -2950,7 +3169,7 @@
       <c r="O3" s="3">
         <v>2</v>
       </c>
-      <c r="P3" s="11">
+      <c r="P3" s="8">
         <v>4.0000000000000001E-3</v>
       </c>
       <c r="Q3" s="3" t="s">
@@ -2962,37 +3181,37 @@
       <c r="S3" s="3">
         <v>195</v>
       </c>
-      <c r="T3" s="11">
+      <c r="T3" s="8">
         <v>3.7999999999999999E-2</v>
       </c>
       <c r="U3" s="3">
         <v>8</v>
       </c>
-      <c r="V3" s="11">
+      <c r="V3" s="8">
         <v>2E-3</v>
       </c>
       <c r="W3" s="3">
         <v>5</v>
       </c>
-      <c r="X3" s="11">
+      <c r="X3" s="8">
         <v>0.01</v>
       </c>
       <c r="Y3" s="3">
         <v>5</v>
       </c>
-      <c r="Z3" s="11">
+      <c r="Z3" s="8">
         <v>0.01</v>
       </c>
       <c r="AA3" s="3">
         <v>1</v>
       </c>
-      <c r="AB3" s="11">
+      <c r="AB3" s="8">
         <v>2E-3</v>
       </c>
       <c r="AC3" s="3">
         <v>3</v>
       </c>
-      <c r="AD3" s="11">
+      <c r="AD3" s="8">
         <v>6.0000000000000001E-3</v>
       </c>
       <c r="AE3" s="3" t="s">
@@ -3028,31 +3247,31 @@
       <c r="AO3" s="3">
         <v>39</v>
       </c>
-      <c r="AP3" s="11">
+      <c r="AP3" s="8">
         <v>8.0000000000000002E-3</v>
       </c>
       <c r="AQ3" s="3">
         <v>17</v>
       </c>
-      <c r="AR3" s="11">
+      <c r="AR3" s="8">
         <v>3.0000000000000001E-3</v>
       </c>
       <c r="AS3" s="3">
         <v>2</v>
       </c>
-      <c r="AT3" s="11">
+      <c r="AT3" s="8">
         <v>4.0000000000000001E-3</v>
       </c>
       <c r="AU3" s="3">
         <v>2</v>
       </c>
-      <c r="AV3" s="11">
+      <c r="AV3" s="8">
         <v>4.0000000000000001E-3</v>
       </c>
       <c r="AW3" s="3">
         <v>1</v>
       </c>
-      <c r="AX3" s="11">
+      <c r="AX3" s="8">
         <v>2E-3</v>
       </c>
       <c r="AY3" s="3" t="s">
@@ -3084,163 +3303,163 @@
       <c r="C4" s="3">
         <v>19553</v>
       </c>
-      <c r="D4" s="11">
+      <c r="D4" s="8">
         <v>0.46500000000000002</v>
       </c>
       <c r="E4" s="3">
         <v>10656</v>
       </c>
-      <c r="F4" s="11">
+      <c r="F4" s="8">
         <v>0.253</v>
       </c>
       <c r="G4" s="3">
         <v>2153</v>
       </c>
-      <c r="H4" s="11">
+      <c r="H4" s="8">
         <v>5.0999999999999997E-2</v>
       </c>
       <c r="I4" s="3">
         <v>3236</v>
       </c>
-      <c r="J4" s="11">
+      <c r="J4" s="8">
         <v>7.6999999999999999E-2</v>
       </c>
       <c r="K4" s="3">
         <v>2515</v>
       </c>
-      <c r="L4" s="11">
+      <c r="L4" s="8">
         <v>0.06</v>
       </c>
       <c r="M4" s="3">
         <v>203</v>
       </c>
-      <c r="N4" s="11">
+      <c r="N4" s="8">
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="O4" s="3">
         <v>254</v>
       </c>
-      <c r="P4" s="11">
+      <c r="P4" s="8">
         <v>6.0000000000000001E-3</v>
       </c>
       <c r="Q4" s="3">
         <v>33</v>
       </c>
-      <c r="R4" s="11">
+      <c r="R4" s="8">
         <v>1E-3</v>
       </c>
       <c r="S4" s="3">
         <v>2097</v>
       </c>
-      <c r="T4" s="11">
+      <c r="T4" s="8">
         <v>0.05</v>
       </c>
       <c r="U4" s="3">
         <v>318</v>
       </c>
-      <c r="V4" s="11">
+      <c r="V4" s="8">
         <v>8.0000000000000002E-3</v>
       </c>
       <c r="W4" s="3">
         <v>45</v>
       </c>
-      <c r="X4" s="11">
+      <c r="X4" s="8">
         <v>1E-3</v>
       </c>
       <c r="Y4" s="3">
         <v>105</v>
       </c>
-      <c r="Z4" s="11">
+      <c r="Z4" s="8">
         <v>2E-3</v>
       </c>
       <c r="AA4" s="3">
         <v>53</v>
       </c>
-      <c r="AB4" s="11">
+      <c r="AB4" s="8">
         <v>1E-3</v>
       </c>
       <c r="AC4" s="3">
         <v>65</v>
       </c>
-      <c r="AD4" s="11">
+      <c r="AD4" s="8">
         <v>2E-3</v>
       </c>
       <c r="AE4" s="3">
         <v>16</v>
       </c>
-      <c r="AF4" s="11">
+      <c r="AF4" s="8">
         <v>0</v>
       </c>
       <c r="AG4" s="3">
         <v>3</v>
       </c>
-      <c r="AH4" s="11">
+      <c r="AH4" s="8">
         <v>0</v>
       </c>
       <c r="AI4" s="3">
         <v>12</v>
       </c>
-      <c r="AJ4" s="11">
+      <c r="AJ4" s="8">
         <v>0</v>
       </c>
       <c r="AK4" s="3">
         <v>48</v>
       </c>
-      <c r="AL4" s="11">
+      <c r="AL4" s="8">
         <v>1E-3</v>
       </c>
       <c r="AM4" s="3">
         <v>36</v>
       </c>
-      <c r="AN4" s="11">
+      <c r="AN4" s="8">
         <v>1E-3</v>
       </c>
       <c r="AO4" s="3">
         <v>144</v>
       </c>
-      <c r="AP4" s="11">
+      <c r="AP4" s="8">
         <v>3.0000000000000001E-3</v>
       </c>
       <c r="AQ4" s="3">
         <v>95</v>
       </c>
-      <c r="AR4" s="11">
+      <c r="AR4" s="8">
         <v>2E-3</v>
       </c>
       <c r="AS4" s="3">
         <v>241</v>
       </c>
-      <c r="AT4" s="11">
+      <c r="AT4" s="8">
         <v>6.0000000000000001E-3</v>
       </c>
       <c r="AU4" s="3">
         <v>87</v>
       </c>
-      <c r="AV4" s="11">
+      <c r="AV4" s="8">
         <v>2E-3</v>
       </c>
       <c r="AW4" s="3">
         <v>21</v>
       </c>
-      <c r="AX4" s="11">
+      <c r="AX4" s="8">
         <v>0</v>
       </c>
       <c r="AY4" s="3">
         <v>38</v>
       </c>
-      <c r="AZ4" s="11">
+      <c r="AZ4" s="8">
         <v>1E-3</v>
       </c>
       <c r="BA4" s="3">
         <v>8</v>
       </c>
-      <c r="BB4" s="11">
+      <c r="BB4" s="8">
         <v>0</v>
       </c>
       <c r="BC4" s="3">
         <v>13</v>
       </c>
-      <c r="BD4" s="11">
+      <c r="BD4" s="8">
         <v>0</v>
       </c>
     </row>
@@ -3254,151 +3473,151 @@
       <c r="C5" s="3">
         <v>8838</v>
       </c>
-      <c r="D5" s="11">
+      <c r="D5" s="8">
         <v>0.26</v>
       </c>
       <c r="E5" s="3">
         <v>14592</v>
       </c>
-      <c r="F5" s="11">
+      <c r="F5" s="8">
         <v>0.43</v>
       </c>
       <c r="G5" s="3">
         <v>6021</v>
       </c>
-      <c r="H5" s="11">
+      <c r="H5" s="8">
         <v>0.17699999999999999</v>
       </c>
       <c r="I5" s="3">
         <v>1957</v>
       </c>
-      <c r="J5" s="11">
+      <c r="J5" s="8">
         <v>5.8000000000000003E-2</v>
       </c>
       <c r="K5" s="3">
         <v>70</v>
       </c>
-      <c r="L5" s="11">
+      <c r="L5" s="8">
         <v>2E-3</v>
       </c>
       <c r="M5" s="3">
         <v>531</v>
       </c>
-      <c r="N5" s="11">
+      <c r="N5" s="8">
         <v>1.6E-2</v>
       </c>
       <c r="O5" s="3">
         <v>42</v>
       </c>
-      <c r="P5" s="11">
+      <c r="P5" s="8">
         <v>1E-3</v>
       </c>
       <c r="Q5" s="3">
         <v>170</v>
       </c>
-      <c r="R5" s="11">
+      <c r="R5" s="8">
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="S5" s="3">
         <v>1250</v>
       </c>
-      <c r="T5" s="11">
+      <c r="T5" s="8">
         <v>3.6999999999999998E-2</v>
       </c>
       <c r="U5" s="3">
         <v>93</v>
       </c>
-      <c r="V5" s="11">
+      <c r="V5" s="8">
         <v>3.0000000000000001E-3</v>
       </c>
       <c r="W5" s="3">
         <v>3</v>
       </c>
-      <c r="X5" s="11">
+      <c r="X5" s="8">
         <v>0</v>
       </c>
       <c r="Y5" s="3">
         <v>27</v>
       </c>
-      <c r="Z5" s="11">
+      <c r="Z5" s="8">
         <v>1E-3</v>
       </c>
       <c r="AA5" s="3">
         <v>5</v>
       </c>
-      <c r="AB5" s="11">
+      <c r="AB5" s="8">
         <v>0</v>
       </c>
       <c r="AC5" s="3">
         <v>27</v>
       </c>
-      <c r="AD5" s="11">
+      <c r="AD5" s="8">
         <v>1E-3</v>
       </c>
       <c r="AE5" s="3">
         <v>18</v>
       </c>
-      <c r="AF5" s="11">
+      <c r="AF5" s="8">
         <v>1E-3</v>
       </c>
       <c r="AG5" s="3">
         <v>11</v>
       </c>
-      <c r="AH5" s="11">
+      <c r="AH5" s="8">
         <v>0</v>
       </c>
       <c r="AI5" s="3">
         <v>28</v>
       </c>
-      <c r="AJ5" s="11">
+      <c r="AJ5" s="8">
         <v>1E-3</v>
       </c>
       <c r="AK5" s="3">
         <v>21</v>
       </c>
-      <c r="AL5" s="11">
+      <c r="AL5" s="8">
         <v>1E-3</v>
       </c>
       <c r="AM5" s="3">
         <v>2</v>
       </c>
-      <c r="AN5" s="11">
+      <c r="AN5" s="8">
         <v>0</v>
       </c>
       <c r="AO5" s="3">
         <v>179</v>
       </c>
-      <c r="AP5" s="11">
+      <c r="AP5" s="8">
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="AQ5" s="3">
         <v>43</v>
       </c>
-      <c r="AR5" s="11">
+      <c r="AR5" s="8">
         <v>1E-3</v>
       </c>
       <c r="AS5" s="3">
         <v>6</v>
       </c>
-      <c r="AT5" s="11">
+      <c r="AT5" s="8">
         <v>0</v>
       </c>
       <c r="AU5" s="3">
         <v>26</v>
       </c>
-      <c r="AV5" s="11">
+      <c r="AV5" s="8">
         <v>1E-3</v>
       </c>
       <c r="AW5" s="3">
         <v>5</v>
       </c>
-      <c r="AX5" s="11">
+      <c r="AX5" s="8">
         <v>0</v>
       </c>
       <c r="AY5" s="3">
         <v>1</v>
       </c>
-      <c r="AZ5" s="11">
+      <c r="AZ5" s="8">
         <v>0</v>
       </c>
       <c r="BA5" s="3" t="s">
@@ -3410,7 +3629,7 @@
       <c r="BC5" s="3">
         <v>4</v>
       </c>
-      <c r="BD5" s="11">
+      <c r="BD5" s="8">
         <v>0</v>
       </c>
     </row>
@@ -3424,43 +3643,43 @@
       <c r="C6" s="3">
         <v>8808</v>
       </c>
-      <c r="D6" s="11">
+      <c r="D6" s="8">
         <v>0.191</v>
       </c>
       <c r="E6" s="3">
         <v>16562</v>
       </c>
-      <c r="F6" s="11">
+      <c r="F6" s="8">
         <v>0.36</v>
       </c>
       <c r="G6" s="3">
         <v>12592</v>
       </c>
-      <c r="H6" s="11">
+      <c r="H6" s="8">
         <v>0.27300000000000002</v>
       </c>
       <c r="I6" s="3">
         <v>5985</v>
       </c>
-      <c r="J6" s="11">
+      <c r="J6" s="8">
         <v>0.13</v>
       </c>
       <c r="K6" s="3">
         <v>57</v>
       </c>
-      <c r="L6" s="11">
+      <c r="L6" s="8">
         <v>1E-3</v>
       </c>
       <c r="M6" s="3">
         <v>334</v>
       </c>
-      <c r="N6" s="11">
+      <c r="N6" s="8">
         <v>7.0000000000000001E-3</v>
       </c>
       <c r="O6" s="3">
         <v>41</v>
       </c>
-      <c r="P6" s="11">
+      <c r="P6" s="8">
         <v>1E-3</v>
       </c>
       <c r="Q6" s="3" t="s">
@@ -3472,115 +3691,115 @@
       <c r="S6" s="3">
         <v>952</v>
       </c>
-      <c r="T6" s="11">
+      <c r="T6" s="8">
         <v>2.1000000000000001E-2</v>
       </c>
       <c r="U6" s="3">
         <v>239</v>
       </c>
-      <c r="V6" s="11">
+      <c r="V6" s="8">
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="W6" s="3">
         <v>4</v>
       </c>
-      <c r="X6" s="11">
+      <c r="X6" s="8">
         <v>0</v>
       </c>
       <c r="Y6" s="3">
         <v>27</v>
       </c>
-      <c r="Z6" s="11">
+      <c r="Z6" s="8">
         <v>1E-3</v>
       </c>
       <c r="AA6" s="3">
         <v>6</v>
       </c>
-      <c r="AB6" s="11">
+      <c r="AB6" s="8">
         <v>0</v>
       </c>
       <c r="AC6" s="3">
         <v>21</v>
       </c>
-      <c r="AD6" s="11">
+      <c r="AD6" s="8">
         <v>0</v>
       </c>
       <c r="AE6" s="3">
         <v>5</v>
       </c>
-      <c r="AF6" s="11">
+      <c r="AF6" s="8">
         <v>0</v>
       </c>
       <c r="AG6" s="3">
         <v>97</v>
       </c>
-      <c r="AH6" s="11">
+      <c r="AH6" s="8">
         <v>2E-3</v>
       </c>
       <c r="AI6" s="3">
         <v>84</v>
       </c>
-      <c r="AJ6" s="11">
+      <c r="AJ6" s="8">
         <v>2E-3</v>
       </c>
       <c r="AK6" s="3">
         <v>10</v>
       </c>
-      <c r="AL6" s="11">
+      <c r="AL6" s="8">
         <v>0</v>
       </c>
       <c r="AM6" s="3">
         <v>18</v>
       </c>
-      <c r="AN6" s="11">
+      <c r="AN6" s="8">
         <v>0</v>
       </c>
       <c r="AO6" s="3">
         <v>136</v>
       </c>
-      <c r="AP6" s="11">
+      <c r="AP6" s="8">
         <v>3.0000000000000001E-3</v>
       </c>
       <c r="AQ6" s="3">
         <v>32</v>
       </c>
-      <c r="AR6" s="11">
+      <c r="AR6" s="8">
         <v>1E-3</v>
       </c>
       <c r="AS6" s="3">
         <v>13</v>
       </c>
-      <c r="AT6" s="11">
+      <c r="AT6" s="8">
         <v>0</v>
       </c>
       <c r="AU6" s="3">
         <v>14</v>
       </c>
-      <c r="AV6" s="11">
+      <c r="AV6" s="8">
         <v>0</v>
       </c>
       <c r="AW6" s="3">
         <v>1</v>
       </c>
-      <c r="AX6" s="11">
+      <c r="AX6" s="8">
         <v>0</v>
       </c>
       <c r="AY6" s="3">
         <v>3</v>
       </c>
-      <c r="AZ6" s="11">
+      <c r="AZ6" s="8">
         <v>0</v>
       </c>
       <c r="BA6" s="3">
         <v>1</v>
       </c>
-      <c r="BB6" s="11">
+      <c r="BB6" s="8">
         <v>0</v>
       </c>
       <c r="BC6" s="3">
         <v>9</v>
       </c>
-      <c r="BD6" s="11">
+      <c r="BD6" s="8">
         <v>0</v>
       </c>
     </row>
@@ -3594,97 +3813,97 @@
       <c r="C7" s="3">
         <v>9262</v>
       </c>
-      <c r="D7" s="11">
+      <c r="D7" s="8">
         <v>0.48199999999999998</v>
       </c>
       <c r="E7" s="3">
         <v>7247</v>
       </c>
-      <c r="F7" s="11">
+      <c r="F7" s="8">
         <v>0.377</v>
       </c>
       <c r="G7" s="3">
         <v>82</v>
       </c>
-      <c r="H7" s="11">
+      <c r="H7" s="8">
         <v>4.0000000000000001E-3</v>
       </c>
       <c r="I7" s="3">
         <v>113</v>
       </c>
-      <c r="J7" s="11">
+      <c r="J7" s="8">
         <v>6.0000000000000001E-3</v>
       </c>
       <c r="K7" s="3">
         <v>100</v>
       </c>
-      <c r="L7" s="11">
+      <c r="L7" s="8">
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="M7" s="3">
         <v>33</v>
       </c>
-      <c r="N7" s="11">
+      <c r="N7" s="8">
         <v>2E-3</v>
       </c>
       <c r="O7" s="3">
         <v>167</v>
       </c>
-      <c r="P7" s="11">
+      <c r="P7" s="8">
         <v>8.9999999999999993E-3</v>
       </c>
       <c r="Q7" s="3">
         <v>144</v>
       </c>
-      <c r="R7" s="11">
+      <c r="R7" s="8">
         <v>7.0000000000000001E-3</v>
       </c>
       <c r="S7" s="3">
         <v>1150</v>
       </c>
-      <c r="T7" s="11">
+      <c r="T7" s="8">
         <v>0.06</v>
       </c>
       <c r="U7" s="3">
         <v>193</v>
       </c>
-      <c r="V7" s="11">
+      <c r="V7" s="8">
         <v>0.01</v>
       </c>
       <c r="W7" s="3">
         <v>72</v>
       </c>
-      <c r="X7" s="11">
+      <c r="X7" s="8">
         <v>4.0000000000000001E-3</v>
       </c>
       <c r="Y7" s="3">
         <v>74</v>
       </c>
-      <c r="Z7" s="11">
+      <c r="Z7" s="8">
         <v>4.0000000000000001E-3</v>
       </c>
       <c r="AA7" s="3">
         <v>42</v>
       </c>
-      <c r="AB7" s="11">
+      <c r="AB7" s="8">
         <v>2E-3</v>
       </c>
       <c r="AC7" s="3">
         <v>2</v>
       </c>
-      <c r="AD7" s="11">
+      <c r="AD7" s="8">
         <v>0</v>
       </c>
       <c r="AE7" s="3">
         <v>10</v>
       </c>
-      <c r="AF7" s="11">
+      <c r="AF7" s="8">
         <v>1E-3</v>
       </c>
       <c r="AG7" s="3">
         <v>1</v>
       </c>
-      <c r="AH7" s="11">
+      <c r="AH7" s="8">
         <v>0</v>
       </c>
       <c r="AI7" s="3" t="s">
@@ -3702,55 +3921,55 @@
       <c r="AM7" s="3">
         <v>7</v>
       </c>
-      <c r="AN7" s="11">
+      <c r="AN7" s="8">
         <v>0</v>
       </c>
       <c r="AO7" s="3">
         <v>105</v>
       </c>
-      <c r="AP7" s="11">
+      <c r="AP7" s="8">
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="AQ7" s="3">
         <v>46</v>
       </c>
-      <c r="AR7" s="11">
+      <c r="AR7" s="8">
         <v>2E-3</v>
       </c>
       <c r="AS7" s="3">
         <v>210</v>
       </c>
-      <c r="AT7" s="11">
+      <c r="AT7" s="8">
         <v>1.0999999999999999E-2</v>
       </c>
       <c r="AU7" s="3">
         <v>69</v>
       </c>
-      <c r="AV7" s="11">
+      <c r="AV7" s="8">
         <v>4.0000000000000001E-3</v>
       </c>
       <c r="AW7" s="3">
         <v>14</v>
       </c>
-      <c r="AX7" s="11">
+      <c r="AX7" s="8">
         <v>1E-3</v>
       </c>
       <c r="AY7" s="3">
         <v>39</v>
       </c>
-      <c r="AZ7" s="11">
+      <c r="AZ7" s="8">
         <v>2E-3</v>
       </c>
       <c r="BA7" s="3">
         <v>16</v>
       </c>
-      <c r="BB7" s="11">
+      <c r="BB7" s="8">
         <v>1E-3</v>
       </c>
       <c r="BC7" s="3">
         <v>20</v>
       </c>
-      <c r="BD7" s="11">
+      <c r="BD7" s="8">
         <v>1E-3</v>
       </c>
     </row>
@@ -3764,43 +3983,43 @@
       <c r="C8" s="3">
         <v>15082</v>
       </c>
-      <c r="D8" s="11">
+      <c r="D8" s="8">
         <v>0.90500000000000003</v>
       </c>
       <c r="E8" s="3">
         <v>727</v>
       </c>
-      <c r="F8" s="11">
+      <c r="F8" s="8">
         <v>4.3999999999999997E-2</v>
       </c>
       <c r="G8" s="3">
         <v>4</v>
       </c>
-      <c r="H8" s="11">
+      <c r="H8" s="8">
         <v>0</v>
       </c>
       <c r="I8" s="3">
         <v>12</v>
       </c>
-      <c r="J8" s="11">
+      <c r="J8" s="8">
         <v>1E-3</v>
       </c>
       <c r="K8" s="3">
         <v>38</v>
       </c>
-      <c r="L8" s="11">
+      <c r="L8" s="8">
         <v>2E-3</v>
       </c>
       <c r="M8" s="3">
         <v>97</v>
       </c>
-      <c r="N8" s="11">
+      <c r="N8" s="8">
         <v>6.0000000000000001E-3</v>
       </c>
       <c r="O8" s="3">
         <v>42</v>
       </c>
-      <c r="P8" s="11">
+      <c r="P8" s="8">
         <v>3.0000000000000001E-3</v>
       </c>
       <c r="Q8" s="3" t="s">
@@ -3812,31 +4031,31 @@
       <c r="S8" s="3">
         <v>457</v>
       </c>
-      <c r="T8" s="11">
+      <c r="T8" s="8">
         <v>2.7E-2</v>
       </c>
       <c r="U8" s="3">
         <v>60</v>
       </c>
-      <c r="V8" s="11">
+      <c r="V8" s="8">
         <v>4.0000000000000001E-3</v>
       </c>
       <c r="W8" s="3">
         <v>6</v>
       </c>
-      <c r="X8" s="11">
+      <c r="X8" s="8">
         <v>0</v>
       </c>
       <c r="Y8" s="3">
         <v>17</v>
       </c>
-      <c r="Z8" s="11">
+      <c r="Z8" s="8">
         <v>1E-3</v>
       </c>
       <c r="AA8" s="3">
         <v>7</v>
       </c>
-      <c r="AB8" s="11">
+      <c r="AB8" s="8">
         <v>0</v>
       </c>
       <c r="AC8" s="3" t="s">
@@ -3848,7 +4067,7 @@
       <c r="AE8" s="3">
         <v>4</v>
       </c>
-      <c r="AF8" s="11">
+      <c r="AF8" s="8">
         <v>0</v>
       </c>
       <c r="AG8" s="3" t="s">
@@ -3866,7 +4085,7 @@
       <c r="AK8" s="3">
         <v>1</v>
       </c>
-      <c r="AL8" s="11">
+      <c r="AL8" s="8">
         <v>0</v>
       </c>
       <c r="AM8" s="3" t="s">
@@ -3878,49 +4097,49 @@
       <c r="AO8" s="3">
         <v>14</v>
       </c>
-      <c r="AP8" s="11">
+      <c r="AP8" s="8">
         <v>1E-3</v>
       </c>
       <c r="AQ8" s="3">
         <v>37</v>
       </c>
-      <c r="AR8" s="11">
+      <c r="AR8" s="8">
         <v>2E-3</v>
       </c>
       <c r="AS8" s="3">
         <v>6</v>
       </c>
-      <c r="AT8" s="11">
+      <c r="AT8" s="8">
         <v>0</v>
       </c>
       <c r="AU8" s="3">
         <v>20</v>
       </c>
-      <c r="AV8" s="11">
+      <c r="AV8" s="8">
         <v>1E-3</v>
       </c>
       <c r="AW8" s="3">
         <v>7</v>
       </c>
-      <c r="AX8" s="11">
+      <c r="AX8" s="8">
         <v>0</v>
       </c>
       <c r="AY8" s="3">
         <v>12</v>
       </c>
-      <c r="AZ8" s="11">
+      <c r="AZ8" s="8">
         <v>1E-3</v>
       </c>
       <c r="BA8" s="3">
         <v>6</v>
       </c>
-      <c r="BB8" s="11">
+      <c r="BB8" s="8">
         <v>0</v>
       </c>
       <c r="BC8" s="3">
         <v>1</v>
       </c>
-      <c r="BD8" s="11">
+      <c r="BD8" s="8">
         <v>0</v>
       </c>
     </row>
@@ -3934,79 +4153,79 @@
       <c r="C9" s="3">
         <v>11857</v>
       </c>
-      <c r="D9" s="11">
+      <c r="D9" s="8">
         <v>0.64200000000000002</v>
       </c>
       <c r="E9" s="3">
         <v>5001</v>
       </c>
-      <c r="F9" s="11">
+      <c r="F9" s="8">
         <v>0.27100000000000002</v>
       </c>
       <c r="G9" s="3">
         <v>16</v>
       </c>
-      <c r="H9" s="11">
+      <c r="H9" s="8">
         <v>1E-3</v>
       </c>
       <c r="I9" s="3">
         <v>38</v>
       </c>
-      <c r="J9" s="11">
+      <c r="J9" s="8">
         <v>2E-3</v>
       </c>
       <c r="K9" s="3">
         <v>81</v>
       </c>
-      <c r="L9" s="11">
+      <c r="L9" s="8">
         <v>4.0000000000000001E-3</v>
       </c>
       <c r="M9" s="3">
         <v>28</v>
       </c>
-      <c r="N9" s="11">
+      <c r="N9" s="8">
         <v>2E-3</v>
       </c>
       <c r="O9" s="3">
         <v>55</v>
       </c>
-      <c r="P9" s="11">
+      <c r="P9" s="8">
         <v>3.0000000000000001E-3</v>
       </c>
       <c r="Q9" s="3">
         <v>2</v>
       </c>
-      <c r="R9" s="11">
+      <c r="R9" s="8">
         <v>0</v>
       </c>
       <c r="S9" s="3">
         <v>1034</v>
       </c>
-      <c r="T9" s="11">
+      <c r="T9" s="8">
         <v>5.6000000000000001E-2</v>
       </c>
       <c r="U9" s="3">
         <v>62</v>
       </c>
-      <c r="V9" s="11">
+      <c r="V9" s="8">
         <v>3.0000000000000001E-3</v>
       </c>
       <c r="W9" s="3">
         <v>15</v>
       </c>
-      <c r="X9" s="11">
+      <c r="X9" s="8">
         <v>1E-3</v>
       </c>
       <c r="Y9" s="3">
         <v>30</v>
       </c>
-      <c r="Z9" s="11">
+      <c r="Z9" s="8">
         <v>2E-3</v>
       </c>
       <c r="AA9" s="3">
         <v>13</v>
       </c>
-      <c r="AB9" s="11">
+      <c r="AB9" s="8">
         <v>1E-3</v>
       </c>
       <c r="AC9" s="3" t="s">
@@ -4042,55 +4261,55 @@
       <c r="AM9" s="3">
         <v>1</v>
       </c>
-      <c r="AN9" s="11">
+      <c r="AN9" s="8">
         <v>0</v>
       </c>
       <c r="AO9" s="3">
         <v>57</v>
       </c>
-      <c r="AP9" s="11">
+      <c r="AP9" s="8">
         <v>3.0000000000000001E-3</v>
       </c>
       <c r="AQ9" s="3">
         <v>97</v>
       </c>
-      <c r="AR9" s="11">
+      <c r="AR9" s="8">
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="AS9" s="3">
         <v>29</v>
       </c>
-      <c r="AT9" s="11">
+      <c r="AT9" s="8">
         <v>2E-3</v>
       </c>
       <c r="AU9" s="3">
         <v>32</v>
       </c>
-      <c r="AV9" s="11">
+      <c r="AV9" s="8">
         <v>2E-3</v>
       </c>
       <c r="AW9" s="3">
         <v>8</v>
       </c>
-      <c r="AX9" s="11">
+      <c r="AX9" s="8">
         <v>0</v>
       </c>
       <c r="AY9" s="3">
         <v>11</v>
       </c>
-      <c r="AZ9" s="11">
+      <c r="AZ9" s="8">
         <v>1E-3</v>
       </c>
       <c r="BA9" s="3">
         <v>3</v>
       </c>
-      <c r="BB9" s="11">
+      <c r="BB9" s="8">
         <v>0</v>
       </c>
       <c r="BC9" s="3">
         <v>2</v>
       </c>
-      <c r="BD9" s="11">
+      <c r="BD9" s="8">
         <v>0</v>
       </c>
     </row>
@@ -4104,85 +4323,85 @@
       <c r="C10" s="3">
         <v>10395</v>
       </c>
-      <c r="D10" s="11">
+      <c r="D10" s="8">
         <v>0.33700000000000002</v>
       </c>
       <c r="E10" s="3">
         <v>15090</v>
       </c>
-      <c r="F10" s="11">
+      <c r="F10" s="8">
         <v>0.48899999999999999</v>
       </c>
       <c r="G10" s="3">
         <v>74</v>
       </c>
-      <c r="H10" s="11">
+      <c r="H10" s="8">
         <v>2E-3</v>
       </c>
       <c r="I10" s="3">
         <v>160</v>
       </c>
-      <c r="J10" s="11">
+      <c r="J10" s="8">
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="K10" s="3">
         <v>41</v>
       </c>
-      <c r="L10" s="11">
+      <c r="L10" s="8">
         <v>1E-3</v>
       </c>
       <c r="M10" s="3">
         <v>258</v>
       </c>
-      <c r="N10" s="11">
+      <c r="N10" s="8">
         <v>8.0000000000000002E-3</v>
       </c>
       <c r="O10" s="3">
         <v>662</v>
       </c>
-      <c r="P10" s="11">
+      <c r="P10" s="8">
         <v>2.1000000000000001E-2</v>
       </c>
       <c r="Q10" s="3">
         <v>28</v>
       </c>
-      <c r="R10" s="11">
+      <c r="R10" s="8">
         <v>1E-3</v>
       </c>
       <c r="S10" s="3">
         <v>2908</v>
       </c>
-      <c r="T10" s="11">
+      <c r="T10" s="8">
         <v>9.4E-2</v>
       </c>
       <c r="U10" s="3">
         <v>146</v>
       </c>
-      <c r="V10" s="11">
+      <c r="V10" s="8">
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="W10" s="3">
         <v>367</v>
       </c>
-      <c r="X10" s="11">
+      <c r="X10" s="8">
         <v>1.2E-2</v>
       </c>
       <c r="Y10" s="3">
         <v>157</v>
       </c>
-      <c r="Z10" s="11">
+      <c r="Z10" s="8">
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="AA10" s="3">
         <v>48</v>
       </c>
-      <c r="AB10" s="11">
+      <c r="AB10" s="8">
         <v>2E-3</v>
       </c>
       <c r="AC10" s="3">
         <v>1</v>
       </c>
-      <c r="AD10" s="11">
+      <c r="AD10" s="8">
         <v>0</v>
       </c>
       <c r="AE10" s="3" t="s">
@@ -4218,49 +4437,49 @@
       <c r="AO10" s="3">
         <v>98</v>
       </c>
-      <c r="AP10" s="11">
+      <c r="AP10" s="8">
         <v>3.0000000000000001E-3</v>
       </c>
       <c r="AQ10" s="3">
         <v>72</v>
       </c>
-      <c r="AR10" s="11">
+      <c r="AR10" s="8">
         <v>2E-3</v>
       </c>
       <c r="AS10" s="3">
         <v>118</v>
       </c>
-      <c r="AT10" s="11">
+      <c r="AT10" s="8">
         <v>4.0000000000000001E-3</v>
       </c>
       <c r="AU10" s="3">
         <v>95</v>
       </c>
-      <c r="AV10" s="11">
+      <c r="AV10" s="8">
         <v>3.0000000000000001E-3</v>
       </c>
       <c r="AW10" s="3">
         <v>56</v>
       </c>
-      <c r="AX10" s="11">
+      <c r="AX10" s="8">
         <v>2E-3</v>
       </c>
       <c r="AY10" s="3">
         <v>48</v>
       </c>
-      <c r="AZ10" s="11">
+      <c r="AZ10" s="8">
         <v>2E-3</v>
       </c>
       <c r="BA10" s="3">
         <v>30</v>
       </c>
-      <c r="BB10" s="11">
+      <c r="BB10" s="8">
         <v>1E-3</v>
       </c>
       <c r="BC10" s="3">
         <v>12</v>
       </c>
-      <c r="BD10" s="11">
+      <c r="BD10" s="8">
         <v>0</v>
       </c>
     </row>
@@ -4274,13 +4493,13 @@
       <c r="C11" s="3">
         <v>4812</v>
       </c>
-      <c r="D11" s="11">
+      <c r="D11" s="8">
         <v>0.57399999999999995</v>
       </c>
       <c r="E11" s="3">
         <v>2996</v>
       </c>
-      <c r="F11" s="11">
+      <c r="F11" s="8">
         <v>0.35799999999999998</v>
       </c>
       <c r="G11" s="3" t="s">
@@ -4292,7 +4511,7 @@
       <c r="I11" s="3">
         <v>18</v>
       </c>
-      <c r="J11" s="11">
+      <c r="J11" s="8">
         <v>2E-3</v>
       </c>
       <c r="K11" s="3" t="s">
@@ -4310,7 +4529,7 @@
       <c r="O11" s="3">
         <v>7</v>
       </c>
-      <c r="P11" s="11">
+      <c r="P11" s="8">
         <v>1E-3</v>
       </c>
       <c r="Q11" s="3" t="s">
@@ -4322,31 +4541,31 @@
       <c r="S11" s="3">
         <v>323</v>
       </c>
-      <c r="T11" s="11">
+      <c r="T11" s="8">
         <v>3.9E-2</v>
       </c>
       <c r="U11" s="3">
         <v>47</v>
       </c>
-      <c r="V11" s="11">
+      <c r="V11" s="8">
         <v>6.0000000000000001E-3</v>
       </c>
       <c r="W11" s="3">
         <v>7</v>
       </c>
-      <c r="X11" s="11">
+      <c r="X11" s="8">
         <v>1E-3</v>
       </c>
       <c r="Y11" s="3">
         <v>22</v>
       </c>
-      <c r="Z11" s="11">
+      <c r="Z11" s="8">
         <v>3.0000000000000001E-3</v>
       </c>
       <c r="AA11" s="3">
         <v>4</v>
       </c>
-      <c r="AB11" s="11">
+      <c r="AB11" s="8">
         <v>0</v>
       </c>
       <c r="AC11" s="3" t="s">
@@ -4358,7 +4577,7 @@
       <c r="AE11" s="3">
         <v>4</v>
       </c>
-      <c r="AF11" s="11">
+      <c r="AF11" s="8">
         <v>0</v>
       </c>
       <c r="AG11" s="3" t="s">
@@ -4388,49 +4607,49 @@
       <c r="AO11" s="3">
         <v>58</v>
       </c>
-      <c r="AP11" s="11">
+      <c r="AP11" s="8">
         <v>7.0000000000000001E-3</v>
       </c>
       <c r="AQ11" s="3">
         <v>57</v>
       </c>
-      <c r="AR11" s="11">
+      <c r="AR11" s="8">
         <v>7.0000000000000001E-3</v>
       </c>
       <c r="AS11" s="3">
         <v>8</v>
       </c>
-      <c r="AT11" s="11">
+      <c r="AT11" s="8">
         <v>1E-3</v>
       </c>
       <c r="AU11" s="3">
         <v>5</v>
       </c>
-      <c r="AV11" s="11">
+      <c r="AV11" s="8">
         <v>1E-3</v>
       </c>
       <c r="AW11" s="3">
         <v>5</v>
       </c>
-      <c r="AX11" s="11">
+      <c r="AX11" s="8">
         <v>1E-3</v>
       </c>
       <c r="AY11" s="3">
         <v>2</v>
       </c>
-      <c r="AZ11" s="11">
+      <c r="AZ11" s="8">
         <v>0</v>
       </c>
       <c r="BA11" s="3">
         <v>2</v>
       </c>
-      <c r="BB11" s="11">
+      <c r="BB11" s="8">
         <v>0</v>
       </c>
       <c r="BC11" s="3">
         <v>3</v>
       </c>
-      <c r="BD11" s="11">
+      <c r="BD11" s="8">
         <v>0</v>
       </c>
     </row>
@@ -4444,79 +4663,79 @@
       <c r="C12" s="3">
         <v>11047</v>
       </c>
-      <c r="D12" s="11">
+      <c r="D12" s="8">
         <v>0.48899999999999999</v>
       </c>
       <c r="E12" s="3">
         <v>6910</v>
       </c>
-      <c r="F12" s="11">
+      <c r="F12" s="8">
         <v>0.30599999999999999</v>
       </c>
       <c r="G12" s="3">
         <v>29</v>
       </c>
-      <c r="H12" s="11">
+      <c r="H12" s="8">
         <v>1E-3</v>
       </c>
       <c r="I12" s="3">
         <v>64</v>
       </c>
-      <c r="J12" s="11">
+      <c r="J12" s="8">
         <v>3.0000000000000001E-3</v>
       </c>
       <c r="K12" s="3">
         <v>102</v>
       </c>
-      <c r="L12" s="11">
+      <c r="L12" s="8">
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="M12" s="3">
         <v>74</v>
       </c>
-      <c r="N12" s="11">
+      <c r="N12" s="8">
         <v>3.0000000000000001E-3</v>
       </c>
       <c r="O12" s="3">
         <v>1553</v>
       </c>
-      <c r="P12" s="11">
+      <c r="P12" s="8">
         <v>6.9000000000000006E-2</v>
       </c>
       <c r="Q12" s="3">
         <v>63</v>
       </c>
-      <c r="R12" s="11">
+      <c r="R12" s="8">
         <v>3.0000000000000001E-3</v>
       </c>
       <c r="S12" s="3">
         <v>1946</v>
       </c>
-      <c r="T12" s="11">
+      <c r="T12" s="8">
         <v>8.5999999999999993E-2</v>
       </c>
       <c r="U12" s="3">
         <v>162</v>
       </c>
-      <c r="V12" s="11">
+      <c r="V12" s="8">
         <v>7.0000000000000001E-3</v>
       </c>
       <c r="W12" s="3">
         <v>179</v>
       </c>
-      <c r="X12" s="11">
+      <c r="X12" s="8">
         <v>8.0000000000000002E-3</v>
       </c>
       <c r="Y12" s="3">
         <v>93</v>
       </c>
-      <c r="Z12" s="11">
+      <c r="Z12" s="8">
         <v>4.0000000000000001E-3</v>
       </c>
       <c r="AA12" s="3">
         <v>22</v>
       </c>
-      <c r="AB12" s="11">
+      <c r="AB12" s="8">
         <v>1E-3</v>
       </c>
       <c r="AC12" s="3" t="s">
@@ -4534,7 +4753,7 @@
       <c r="AG12" s="3">
         <v>3</v>
       </c>
-      <c r="AH12" s="11">
+      <c r="AH12" s="8">
         <v>0</v>
       </c>
       <c r="AI12" s="3" t="s">
@@ -4546,7 +4765,7 @@
       <c r="AK12" s="3">
         <v>3</v>
       </c>
-      <c r="AL12" s="11">
+      <c r="AL12" s="8">
         <v>0</v>
       </c>
       <c r="AM12" s="3" t="s">
@@ -4558,49 +4777,49 @@
       <c r="AO12" s="3">
         <v>58</v>
       </c>
-      <c r="AP12" s="11">
+      <c r="AP12" s="8">
         <v>3.0000000000000001E-3</v>
       </c>
       <c r="AQ12" s="3">
         <v>60</v>
       </c>
-      <c r="AR12" s="11">
+      <c r="AR12" s="8">
         <v>3.0000000000000001E-3</v>
       </c>
       <c r="AS12" s="3">
         <v>70</v>
       </c>
-      <c r="AT12" s="11">
+      <c r="AT12" s="8">
         <v>3.0000000000000001E-3</v>
       </c>
       <c r="AU12" s="3">
         <v>54</v>
       </c>
-      <c r="AV12" s="11">
+      <c r="AV12" s="8">
         <v>2E-3</v>
       </c>
       <c r="AW12" s="3">
         <v>29</v>
       </c>
-      <c r="AX12" s="11">
+      <c r="AX12" s="8">
         <v>1E-3</v>
       </c>
       <c r="AY12" s="3">
         <v>35</v>
       </c>
-      <c r="AZ12" s="11">
+      <c r="AZ12" s="8">
         <v>2E-3</v>
       </c>
       <c r="BA12" s="3">
         <v>31</v>
       </c>
-      <c r="BB12" s="11">
+      <c r="BB12" s="8">
         <v>1E-3</v>
       </c>
       <c r="BC12" s="3">
         <v>14</v>
       </c>
-      <c r="BD12" s="11">
+      <c r="BD12" s="8">
         <v>1E-3</v>
       </c>
     </row>
@@ -4614,25 +4833,25 @@
       <c r="C13" s="3">
         <v>5097</v>
       </c>
-      <c r="D13" s="11">
+      <c r="D13" s="8">
         <v>0.59099999999999997</v>
       </c>
       <c r="E13" s="3">
         <v>3058</v>
       </c>
-      <c r="F13" s="11">
+      <c r="F13" s="8">
         <v>0.35499999999999998</v>
       </c>
       <c r="G13" s="3">
         <v>8</v>
       </c>
-      <c r="H13" s="11">
+      <c r="H13" s="8">
         <v>1E-3</v>
       </c>
       <c r="I13" s="3">
         <v>4</v>
       </c>
-      <c r="J13" s="11">
+      <c r="J13" s="8">
         <v>0</v>
       </c>
       <c r="K13" s="3" t="s">
@@ -4644,13 +4863,13 @@
       <c r="M13" s="3">
         <v>16</v>
       </c>
-      <c r="N13" s="11">
+      <c r="N13" s="8">
         <v>2E-3</v>
       </c>
       <c r="O13" s="3">
         <v>2</v>
       </c>
-      <c r="P13" s="11">
+      <c r="P13" s="8">
         <v>0</v>
       </c>
       <c r="Q13" s="3" t="s">
@@ -4662,31 +4881,31 @@
       <c r="S13" s="3">
         <v>330</v>
       </c>
-      <c r="T13" s="11">
+      <c r="T13" s="8">
         <v>3.7999999999999999E-2</v>
       </c>
       <c r="U13" s="3">
         <v>36</v>
       </c>
-      <c r="V13" s="11">
+      <c r="V13" s="8">
         <v>4.0000000000000001E-3</v>
       </c>
       <c r="W13" s="3">
         <v>1</v>
       </c>
-      <c r="X13" s="11">
+      <c r="X13" s="8">
         <v>0</v>
       </c>
       <c r="Y13" s="3">
         <v>20</v>
       </c>
-      <c r="Z13" s="11">
+      <c r="Z13" s="8">
         <v>2E-3</v>
       </c>
       <c r="AA13" s="3">
         <v>3</v>
       </c>
-      <c r="AB13" s="11">
+      <c r="AB13" s="8">
         <v>0</v>
       </c>
       <c r="AC13" s="3" t="s">
@@ -4728,31 +4947,31 @@
       <c r="AO13" s="3">
         <v>27</v>
       </c>
-      <c r="AP13" s="11">
+      <c r="AP13" s="8">
         <v>3.0000000000000001E-3</v>
       </c>
       <c r="AQ13" s="3">
         <v>11</v>
       </c>
-      <c r="AR13" s="11">
+      <c r="AR13" s="8">
         <v>1E-3</v>
       </c>
       <c r="AS13" s="3">
         <v>3</v>
       </c>
-      <c r="AT13" s="11">
+      <c r="AT13" s="8">
         <v>0</v>
       </c>
       <c r="AU13" s="3">
         <v>3</v>
       </c>
-      <c r="AV13" s="11">
+      <c r="AV13" s="8">
         <v>0</v>
       </c>
       <c r="AW13" s="3">
         <v>2</v>
       </c>
-      <c r="AX13" s="11">
+      <c r="AX13" s="8">
         <v>0</v>
       </c>
       <c r="AY13" s="3" t="s">
@@ -4770,7 +4989,7 @@
       <c r="BC13" s="3">
         <v>1</v>
       </c>
-      <c r="BD13" s="11">
+      <c r="BD13" s="8">
         <v>0</v>
       </c>
     </row>
@@ -4784,91 +5003,91 @@
       <c r="C14" s="3">
         <v>46149</v>
       </c>
-      <c r="D14" s="11">
+      <c r="D14" s="8">
         <v>0.63700000000000001</v>
       </c>
       <c r="E14" s="3">
         <v>18334</v>
       </c>
-      <c r="F14" s="11">
+      <c r="F14" s="8">
         <v>0.253</v>
       </c>
       <c r="G14" s="3">
         <v>194</v>
       </c>
-      <c r="H14" s="11">
+      <c r="H14" s="8">
         <v>3.0000000000000001E-3</v>
       </c>
       <c r="I14" s="3">
         <v>421</v>
       </c>
-      <c r="J14" s="11">
+      <c r="J14" s="8">
         <v>6.0000000000000001E-3</v>
       </c>
       <c r="K14" s="3">
         <v>73</v>
       </c>
-      <c r="L14" s="11">
+      <c r="L14" s="8">
         <v>1E-3</v>
       </c>
       <c r="M14" s="3">
         <v>483</v>
       </c>
-      <c r="N14" s="11">
+      <c r="N14" s="8">
         <v>7.0000000000000001E-3</v>
       </c>
       <c r="O14" s="3">
         <v>149</v>
       </c>
-      <c r="P14" s="11">
+      <c r="P14" s="8">
         <v>2E-3</v>
       </c>
       <c r="Q14" s="3">
         <v>446</v>
       </c>
-      <c r="R14" s="11">
+      <c r="R14" s="8">
         <v>6.0000000000000001E-3</v>
       </c>
       <c r="S14" s="3">
         <v>4846</v>
       </c>
-      <c r="T14" s="11">
+      <c r="T14" s="8">
         <v>6.7000000000000004E-2</v>
       </c>
       <c r="U14" s="3">
         <v>240</v>
       </c>
-      <c r="V14" s="11">
+      <c r="V14" s="8">
         <v>3.0000000000000001E-3</v>
       </c>
       <c r="W14" s="3">
         <v>34</v>
       </c>
-      <c r="X14" s="11">
+      <c r="X14" s="8">
         <v>0</v>
       </c>
       <c r="Y14" s="3">
         <v>161</v>
       </c>
-      <c r="Z14" s="11">
+      <c r="Z14" s="8">
         <v>2E-3</v>
       </c>
       <c r="AA14" s="3">
         <v>28</v>
       </c>
-      <c r="AB14" s="11">
+      <c r="AB14" s="8">
         <v>0</v>
       </c>
       <c r="AC14" s="3">
         <v>36</v>
       </c>
-      <c r="AD14" s="11">
+      <c r="AD14" s="8">
         <v>0</v>
       </c>
       <c r="AE14" s="3">
         <v>22</v>
       </c>
-      <c r="AF14" s="11">
+      <c r="AF14" s="8">
         <v>0</v>
       </c>
       <c r="AG14" s="3" t="s">
@@ -4880,13 +5099,13 @@
       <c r="AI14" s="3">
         <v>1</v>
       </c>
-      <c r="AJ14" s="11">
+      <c r="AJ14" s="8">
         <v>0</v>
       </c>
       <c r="AK14" s="3">
         <v>8</v>
       </c>
-      <c r="AL14" s="11">
+      <c r="AL14" s="8">
         <v>0</v>
       </c>
       <c r="AM14" s="3" t="s">
@@ -4898,49 +5117,49 @@
       <c r="AO14" s="3">
         <v>356</v>
       </c>
-      <c r="AP14" s="11">
+      <c r="AP14" s="8">
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="AQ14" s="3">
         <v>335</v>
       </c>
-      <c r="AR14" s="11">
+      <c r="AR14" s="8">
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="AS14" s="3">
         <v>29</v>
       </c>
-      <c r="AT14" s="11">
+      <c r="AT14" s="8">
         <v>0</v>
       </c>
       <c r="AU14" s="3">
         <v>68</v>
       </c>
-      <c r="AV14" s="11">
+      <c r="AV14" s="8">
         <v>1E-3</v>
       </c>
       <c r="AW14" s="3">
         <v>20</v>
       </c>
-      <c r="AX14" s="11">
+      <c r="AX14" s="8">
         <v>0</v>
       </c>
       <c r="AY14" s="3">
         <v>6</v>
       </c>
-      <c r="AZ14" s="11">
+      <c r="AZ14" s="8">
         <v>0</v>
       </c>
       <c r="BA14" s="3">
         <v>1</v>
       </c>
-      <c r="BB14" s="11">
+      <c r="BB14" s="8">
         <v>0</v>
       </c>
       <c r="BC14" s="3">
         <v>3</v>
       </c>
-      <c r="BD14" s="11">
+      <c r="BD14" s="8">
         <v>0</v>
       </c>
     </row>
@@ -4954,31 +5173,31 @@
       <c r="C15" s="3">
         <v>822</v>
       </c>
-      <c r="D15" s="11">
+      <c r="D15" s="8">
         <v>6.3E-2</v>
       </c>
       <c r="E15" s="3">
         <v>2098</v>
       </c>
-      <c r="F15" s="11">
+      <c r="F15" s="8">
         <v>0.16</v>
       </c>
       <c r="G15" s="3">
         <v>6803</v>
       </c>
-      <c r="H15" s="11">
+      <c r="H15" s="8">
         <v>0.51900000000000002</v>
       </c>
       <c r="I15" s="3">
         <v>727</v>
       </c>
-      <c r="J15" s="11">
+      <c r="J15" s="8">
         <v>5.5E-2</v>
       </c>
       <c r="K15" s="3">
         <v>2475</v>
       </c>
-      <c r="L15" s="11">
+      <c r="L15" s="8">
         <v>0.189</v>
       </c>
       <c r="M15" s="3" t="s">
@@ -4990,7 +5209,7 @@
       <c r="O15" s="3">
         <v>5</v>
       </c>
-      <c r="P15" s="11">
+      <c r="P15" s="8">
         <v>0</v>
       </c>
       <c r="Q15" s="3" t="s">
@@ -5002,49 +5221,49 @@
       <c r="S15" s="3">
         <v>107</v>
       </c>
-      <c r="T15" s="11">
+      <c r="T15" s="8">
         <v>8.0000000000000002E-3</v>
       </c>
       <c r="U15" s="3">
         <v>32</v>
       </c>
-      <c r="V15" s="11">
+      <c r="V15" s="8">
         <v>2E-3</v>
       </c>
       <c r="W15" s="3">
         <v>2</v>
       </c>
-      <c r="X15" s="11">
+      <c r="X15" s="8">
         <v>0</v>
       </c>
       <c r="Y15" s="3">
         <v>2</v>
       </c>
-      <c r="Z15" s="11">
+      <c r="Z15" s="8">
         <v>0</v>
       </c>
       <c r="AA15" s="3">
         <v>5</v>
       </c>
-      <c r="AB15" s="11">
+      <c r="AB15" s="8">
         <v>0</v>
       </c>
       <c r="AC15" s="3">
         <v>1</v>
       </c>
-      <c r="AD15" s="11">
+      <c r="AD15" s="8">
         <v>0</v>
       </c>
       <c r="AE15" s="3">
         <v>10</v>
       </c>
-      <c r="AF15" s="11">
+      <c r="AF15" s="8">
         <v>1E-3</v>
       </c>
       <c r="AG15" s="3">
         <v>3</v>
       </c>
-      <c r="AH15" s="11">
+      <c r="AH15" s="8">
         <v>0</v>
       </c>
       <c r="AI15" s="3" t="s">
@@ -5062,25 +5281,25 @@
       <c r="AM15" s="3">
         <v>5</v>
       </c>
-      <c r="AN15" s="11">
+      <c r="AN15" s="8">
         <v>0</v>
       </c>
       <c r="AO15" s="3">
         <v>7</v>
       </c>
-      <c r="AP15" s="11">
+      <c r="AP15" s="8">
         <v>1E-3</v>
       </c>
       <c r="AQ15" s="3">
         <v>2</v>
       </c>
-      <c r="AR15" s="11">
+      <c r="AR15" s="8">
         <v>0</v>
       </c>
       <c r="AS15" s="3">
         <v>1</v>
       </c>
-      <c r="AT15" s="11">
+      <c r="AT15" s="8">
         <v>0</v>
       </c>
       <c r="AU15" s="3" t="s">
@@ -5110,7 +5329,7 @@
       <c r="BC15" s="3">
         <v>1</v>
       </c>
-      <c r="BD15" s="11">
+      <c r="BD15" s="8">
         <v>0</v>
       </c>
     </row>
@@ -5124,85 +5343,85 @@
       <c r="C16" s="3">
         <v>7494</v>
       </c>
-      <c r="D16" s="11">
+      <c r="D16" s="8">
         <v>0.24299999999999999</v>
       </c>
       <c r="E16" s="3">
         <v>17569</v>
       </c>
-      <c r="F16" s="11">
+      <c r="F16" s="8">
         <v>0.57099999999999995</v>
       </c>
       <c r="G16" s="3">
         <v>2128</v>
       </c>
-      <c r="H16" s="11">
+      <c r="H16" s="8">
         <v>6.9000000000000006E-2</v>
       </c>
       <c r="I16" s="3">
         <v>1739</v>
       </c>
-      <c r="J16" s="11">
+      <c r="J16" s="8">
         <v>5.6000000000000001E-2</v>
       </c>
       <c r="K16" s="3">
         <v>17</v>
       </c>
-      <c r="L16" s="11">
+      <c r="L16" s="8">
         <v>1E-3</v>
       </c>
       <c r="M16" s="3">
         <v>12</v>
       </c>
-      <c r="N16" s="11">
+      <c r="N16" s="8">
         <v>0</v>
       </c>
       <c r="O16" s="3">
         <v>16</v>
       </c>
-      <c r="P16" s="11">
+      <c r="P16" s="8">
         <v>1E-3</v>
       </c>
       <c r="Q16" s="3">
         <v>1</v>
       </c>
-      <c r="R16" s="11">
+      <c r="R16" s="8">
         <v>0</v>
       </c>
       <c r="S16" s="3">
         <v>1448</v>
       </c>
-      <c r="T16" s="11">
+      <c r="T16" s="8">
         <v>4.7E-2</v>
       </c>
       <c r="U16" s="3">
         <v>115</v>
       </c>
-      <c r="V16" s="11">
+      <c r="V16" s="8">
         <v>4.0000000000000001E-3</v>
       </c>
       <c r="W16" s="3">
         <v>5</v>
       </c>
-      <c r="X16" s="11">
+      <c r="X16" s="8">
         <v>0</v>
       </c>
       <c r="Y16" s="3">
         <v>20</v>
       </c>
-      <c r="Z16" s="11">
+      <c r="Z16" s="8">
         <v>1E-3</v>
       </c>
       <c r="AA16" s="3">
         <v>6</v>
       </c>
-      <c r="AB16" s="11">
+      <c r="AB16" s="8">
         <v>0</v>
       </c>
       <c r="AC16" s="3">
         <v>34</v>
       </c>
-      <c r="AD16" s="11">
+      <c r="AD16" s="8">
         <v>1E-3</v>
       </c>
       <c r="AE16" s="3" t="s">
@@ -5214,61 +5433,61 @@
       <c r="AG16" s="3">
         <v>25</v>
       </c>
-      <c r="AH16" s="11">
+      <c r="AH16" s="8">
         <v>1E-3</v>
       </c>
       <c r="AI16" s="3">
         <v>15</v>
       </c>
-      <c r="AJ16" s="11">
+      <c r="AJ16" s="8">
         <v>0</v>
       </c>
       <c r="AK16" s="3">
         <v>20</v>
       </c>
-      <c r="AL16" s="11">
+      <c r="AL16" s="8">
         <v>1E-3</v>
       </c>
       <c r="AM16" s="3">
         <v>4</v>
       </c>
-      <c r="AN16" s="11">
+      <c r="AN16" s="8">
         <v>0</v>
       </c>
       <c r="AO16" s="3">
         <v>84</v>
       </c>
-      <c r="AP16" s="11">
+      <c r="AP16" s="8">
         <v>3.0000000000000001E-3</v>
       </c>
       <c r="AQ16" s="3">
         <v>14</v>
       </c>
-      <c r="AR16" s="11">
+      <c r="AR16" s="8">
         <v>0</v>
       </c>
       <c r="AS16" s="3">
         <v>5</v>
       </c>
-      <c r="AT16" s="11">
+      <c r="AT16" s="8">
         <v>0</v>
       </c>
       <c r="AU16" s="3">
         <v>9</v>
       </c>
-      <c r="AV16" s="11">
+      <c r="AV16" s="8">
         <v>0</v>
       </c>
       <c r="AW16" s="3">
         <v>1</v>
       </c>
-      <c r="AX16" s="11">
+      <c r="AX16" s="8">
         <v>0</v>
       </c>
       <c r="AY16" s="3">
         <v>3</v>
       </c>
-      <c r="AZ16" s="11">
+      <c r="AZ16" s="8">
         <v>0</v>
       </c>
       <c r="BA16" s="3" t="s">
@@ -5280,7 +5499,7 @@
       <c r="BC16" s="3">
         <v>2</v>
       </c>
-      <c r="BD16" s="11">
+      <c r="BD16" s="8">
         <v>0</v>
       </c>
     </row>
@@ -5294,13 +5513,13 @@
       <c r="C17" s="3">
         <v>902</v>
       </c>
-      <c r="D17" s="11">
+      <c r="D17" s="8">
         <v>0.27800000000000002</v>
       </c>
       <c r="E17" s="3">
         <v>2131</v>
       </c>
-      <c r="F17" s="11">
+      <c r="F17" s="8">
         <v>0.65700000000000003</v>
       </c>
       <c r="G17" s="3" t="s">
@@ -5330,7 +5549,7 @@
       <c r="O17" s="3">
         <v>2</v>
       </c>
-      <c r="P17" s="11">
+      <c r="P17" s="8">
         <v>1E-3</v>
       </c>
       <c r="Q17" s="3" t="s">
@@ -5342,31 +5561,31 @@
       <c r="S17" s="3">
         <v>201</v>
       </c>
-      <c r="T17" s="11">
+      <c r="T17" s="8">
         <v>6.2E-2</v>
       </c>
       <c r="U17" s="3">
         <v>1</v>
       </c>
-      <c r="V17" s="11">
+      <c r="V17" s="8">
         <v>0</v>
       </c>
       <c r="W17" s="3">
         <v>3</v>
       </c>
-      <c r="X17" s="11">
+      <c r="X17" s="8">
         <v>1E-3</v>
       </c>
       <c r="Y17" s="3">
         <v>1</v>
       </c>
-      <c r="Z17" s="11">
+      <c r="Z17" s="8">
         <v>0</v>
       </c>
       <c r="AA17" s="3">
         <v>1</v>
       </c>
-      <c r="AB17" s="11">
+      <c r="AB17" s="8">
         <v>0</v>
       </c>
       <c r="AC17" s="3" t="s">
@@ -5408,13 +5627,13 @@
       <c r="AO17" s="3">
         <v>2</v>
       </c>
-      <c r="AP17" s="11">
+      <c r="AP17" s="8">
         <v>1E-3</v>
       </c>
       <c r="AQ17" s="3">
         <v>1</v>
       </c>
-      <c r="AR17" s="11">
+      <c r="AR17" s="8">
         <v>0</v>
       </c>
       <c r="AS17" s="3" t="s">
@@ -5432,7 +5651,7 @@
       <c r="AW17" s="3">
         <v>1</v>
       </c>
-      <c r="AX17" s="11">
+      <c r="AX17" s="8">
         <v>0</v>
       </c>
       <c r="AY17" s="3" t="s">
@@ -5464,163 +5683,163 @@
       <c r="C18" s="3">
         <v>106642</v>
       </c>
-      <c r="D18" s="11">
+      <c r="D18" s="8">
         <v>0.57399999999999995</v>
       </c>
       <c r="E18" s="3">
         <v>43248</v>
       </c>
-      <c r="F18" s="11">
+      <c r="F18" s="8">
         <v>0.23300000000000001</v>
       </c>
       <c r="G18" s="3">
         <v>3687</v>
       </c>
-      <c r="H18" s="11">
+      <c r="H18" s="8">
         <v>0.02</v>
       </c>
       <c r="I18" s="3">
         <v>4122</v>
       </c>
-      <c r="J18" s="11">
+      <c r="J18" s="8">
         <v>2.1999999999999999E-2</v>
       </c>
       <c r="K18" s="3">
         <v>9538</v>
       </c>
-      <c r="L18" s="11">
+      <c r="L18" s="8">
         <v>5.0999999999999997E-2</v>
       </c>
       <c r="M18" s="3">
         <v>3988</v>
       </c>
-      <c r="N18" s="11">
+      <c r="N18" s="8">
         <v>2.1000000000000001E-2</v>
       </c>
       <c r="O18" s="3">
         <v>664</v>
       </c>
-      <c r="P18" s="11">
+      <c r="P18" s="8">
         <v>4.0000000000000001E-3</v>
       </c>
       <c r="Q18" s="3">
         <v>685</v>
       </c>
-      <c r="R18" s="11">
+      <c r="R18" s="8">
         <v>4.0000000000000001E-3</v>
       </c>
       <c r="S18" s="3">
         <v>8892</v>
       </c>
-      <c r="T18" s="11">
+      <c r="T18" s="8">
         <v>4.8000000000000001E-2</v>
       </c>
       <c r="U18" s="3">
         <v>1222</v>
       </c>
-      <c r="V18" s="11">
+      <c r="V18" s="8">
         <v>7.0000000000000001E-3</v>
       </c>
       <c r="W18" s="3">
         <v>322</v>
       </c>
-      <c r="X18" s="11">
+      <c r="X18" s="8">
         <v>2E-3</v>
       </c>
       <c r="Y18" s="3">
         <v>310</v>
       </c>
-      <c r="Z18" s="11">
+      <c r="Z18" s="8">
         <v>2E-3</v>
       </c>
       <c r="AA18" s="3">
         <v>105</v>
       </c>
-      <c r="AB18" s="11">
+      <c r="AB18" s="8">
         <v>1E-3</v>
       </c>
       <c r="AC18" s="3">
         <v>61</v>
       </c>
-      <c r="AD18" s="11">
+      <c r="AD18" s="8">
         <v>0</v>
       </c>
       <c r="AE18" s="3">
         <v>85</v>
       </c>
-      <c r="AF18" s="11">
+      <c r="AF18" s="8">
         <v>0</v>
       </c>
       <c r="AG18" s="3">
         <v>23</v>
       </c>
-      <c r="AH18" s="11">
+      <c r="AH18" s="8">
         <v>0</v>
       </c>
       <c r="AI18" s="3">
         <v>28</v>
       </c>
-      <c r="AJ18" s="11">
+      <c r="AJ18" s="8">
         <v>0</v>
       </c>
       <c r="AK18" s="3">
         <v>56</v>
       </c>
-      <c r="AL18" s="11">
+      <c r="AL18" s="8">
         <v>0</v>
       </c>
       <c r="AM18" s="3">
         <v>22</v>
       </c>
-      <c r="AN18" s="11">
+      <c r="AN18" s="8">
         <v>0</v>
       </c>
       <c r="AO18" s="3">
         <v>650</v>
       </c>
-      <c r="AP18" s="11">
+      <c r="AP18" s="8">
         <v>3.0000000000000001E-3</v>
       </c>
       <c r="AQ18" s="3">
         <v>850</v>
       </c>
-      <c r="AR18" s="11">
+      <c r="AR18" s="8">
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="AS18" s="3">
         <v>135</v>
       </c>
-      <c r="AT18" s="11">
+      <c r="AT18" s="8">
         <v>1E-3</v>
       </c>
       <c r="AU18" s="3">
         <v>350</v>
       </c>
-      <c r="AV18" s="11">
+      <c r="AV18" s="8">
         <v>2E-3</v>
       </c>
       <c r="AW18" s="3">
         <v>117</v>
       </c>
-      <c r="AX18" s="11">
+      <c r="AX18" s="8">
         <v>1E-3</v>
       </c>
       <c r="AY18" s="3">
         <v>81</v>
       </c>
-      <c r="AZ18" s="11">
+      <c r="AZ18" s="8">
         <v>0</v>
       </c>
       <c r="BA18" s="3">
         <v>24</v>
       </c>
-      <c r="BB18" s="11">
+      <c r="BB18" s="8">
         <v>0</v>
       </c>
       <c r="BC18" s="3">
         <v>30</v>
       </c>
-      <c r="BD18" s="11">
+      <c r="BD18" s="8">
         <v>0</v>
       </c>
     </row>
@@ -5634,31 +5853,31 @@
       <c r="C19" s="3">
         <v>401</v>
       </c>
-      <c r="D19" s="11">
+      <c r="D19" s="8">
         <v>1.7000000000000001E-2</v>
       </c>
       <c r="E19" s="3">
         <v>822</v>
       </c>
-      <c r="F19" s="11">
+      <c r="F19" s="8">
         <v>3.5999999999999997E-2</v>
       </c>
       <c r="G19" s="3">
         <v>19269</v>
       </c>
-      <c r="H19" s="11">
+      <c r="H19" s="8">
         <v>0.83899999999999997</v>
       </c>
       <c r="I19" s="3">
         <v>1044</v>
       </c>
-      <c r="J19" s="11">
+      <c r="J19" s="8">
         <v>4.4999999999999998E-2</v>
       </c>
       <c r="K19" s="3">
         <v>1158</v>
       </c>
-      <c r="L19" s="11">
+      <c r="L19" s="8">
         <v>0.05</v>
       </c>
       <c r="M19" s="3" t="s">
@@ -5670,25 +5889,25 @@
       <c r="O19" s="3">
         <v>6</v>
       </c>
-      <c r="P19" s="11">
+      <c r="P19" s="8">
         <v>0</v>
       </c>
       <c r="Q19" s="3">
         <v>74</v>
       </c>
-      <c r="R19" s="11">
+      <c r="R19" s="8">
         <v>3.0000000000000001E-3</v>
       </c>
       <c r="S19" s="3">
         <v>72</v>
       </c>
-      <c r="T19" s="11">
+      <c r="T19" s="8">
         <v>3.0000000000000001E-3</v>
       </c>
       <c r="U19" s="3">
         <v>37</v>
       </c>
-      <c r="V19" s="11">
+      <c r="V19" s="8">
         <v>2E-3</v>
       </c>
       <c r="W19" s="3" t="s">
@@ -5706,85 +5925,85 @@
       <c r="AA19" s="3">
         <v>12</v>
       </c>
-      <c r="AB19" s="11">
+      <c r="AB19" s="8">
         <v>1E-3</v>
       </c>
       <c r="AC19" s="3">
         <v>1</v>
       </c>
-      <c r="AD19" s="11">
+      <c r="AD19" s="8">
         <v>0</v>
       </c>
       <c r="AE19" s="3">
         <v>19</v>
       </c>
-      <c r="AF19" s="11">
+      <c r="AF19" s="8">
         <v>1E-3</v>
       </c>
       <c r="AG19" s="3">
         <v>14</v>
       </c>
-      <c r="AH19" s="11">
+      <c r="AH19" s="8">
         <v>1E-3</v>
       </c>
       <c r="AI19" s="3">
         <v>13</v>
       </c>
-      <c r="AJ19" s="11">
+      <c r="AJ19" s="8">
         <v>1E-3</v>
       </c>
       <c r="AK19" s="3">
         <v>3</v>
       </c>
-      <c r="AL19" s="11">
+      <c r="AL19" s="8">
         <v>0</v>
       </c>
       <c r="AM19" s="3">
         <v>6</v>
       </c>
-      <c r="AN19" s="11">
+      <c r="AN19" s="8">
         <v>0</v>
       </c>
       <c r="AO19" s="3">
         <v>3</v>
       </c>
-      <c r="AP19" s="11">
+      <c r="AP19" s="8">
         <v>0</v>
       </c>
       <c r="AQ19" s="3">
         <v>3</v>
       </c>
-      <c r="AR19" s="11">
+      <c r="AR19" s="8">
         <v>0</v>
       </c>
       <c r="AS19" s="3">
         <v>3</v>
       </c>
-      <c r="AT19" s="11">
+      <c r="AT19" s="8">
         <v>0</v>
       </c>
       <c r="AU19" s="3">
         <v>1</v>
       </c>
-      <c r="AV19" s="11">
+      <c r="AV19" s="8">
         <v>0</v>
       </c>
       <c r="AW19" s="3">
         <v>1</v>
       </c>
-      <c r="AX19" s="11">
+      <c r="AX19" s="8">
         <v>0</v>
       </c>
       <c r="AY19" s="3">
         <v>1</v>
       </c>
-      <c r="AZ19" s="11">
+      <c r="AZ19" s="8">
         <v>0</v>
       </c>
       <c r="BA19" s="3">
         <v>1</v>
       </c>
-      <c r="BB19" s="11">
+      <c r="BB19" s="8">
         <v>0</v>
       </c>
       <c r="BC19" s="3" t="s">
@@ -5804,13 +6023,13 @@
       <c r="C20" s="3">
         <v>1114</v>
       </c>
-      <c r="D20" s="11">
+      <c r="D20" s="8">
         <v>0.53800000000000003</v>
       </c>
       <c r="E20" s="3">
         <v>878</v>
       </c>
-      <c r="F20" s="11">
+      <c r="F20" s="8">
         <v>0.42399999999999999</v>
       </c>
       <c r="G20" s="3" t="s">
@@ -5822,7 +6041,7 @@
       <c r="I20" s="3">
         <v>2</v>
       </c>
-      <c r="J20" s="11">
+      <c r="J20" s="8">
         <v>1E-3</v>
       </c>
       <c r="K20" s="3" t="s">
@@ -5840,7 +6059,7 @@
       <c r="O20" s="3">
         <v>1</v>
       </c>
-      <c r="P20" s="11">
+      <c r="P20" s="8">
         <v>0</v>
       </c>
       <c r="Q20" s="3" t="s">
@@ -5852,25 +6071,25 @@
       <c r="S20" s="3">
         <v>47</v>
       </c>
-      <c r="T20" s="11">
+      <c r="T20" s="8">
         <v>2.3E-2</v>
       </c>
       <c r="U20" s="3">
         <v>1</v>
       </c>
-      <c r="V20" s="11">
+      <c r="V20" s="8">
         <v>0</v>
       </c>
       <c r="W20" s="3">
         <v>2</v>
       </c>
-      <c r="X20" s="11">
+      <c r="X20" s="8">
         <v>1E-3</v>
       </c>
       <c r="Y20" s="3">
         <v>3</v>
       </c>
-      <c r="Z20" s="11">
+      <c r="Z20" s="8">
         <v>1E-3</v>
       </c>
       <c r="AA20" s="3" t="s">
@@ -5918,25 +6137,25 @@
       <c r="AO20" s="3">
         <v>14</v>
       </c>
-      <c r="AP20" s="11">
+      <c r="AP20" s="8">
         <v>7.0000000000000001E-3</v>
       </c>
       <c r="AQ20" s="3">
         <v>5</v>
       </c>
-      <c r="AR20" s="11">
+      <c r="AR20" s="8">
         <v>2E-3</v>
       </c>
       <c r="AS20" s="3">
         <v>1</v>
       </c>
-      <c r="AT20" s="11">
+      <c r="AT20" s="8">
         <v>0</v>
       </c>
       <c r="AU20" s="3">
         <v>1</v>
       </c>
-      <c r="AV20" s="11">
+      <c r="AV20" s="8">
         <v>0</v>
       </c>
       <c r="AW20" s="3" t="s">
@@ -5948,7 +6167,7 @@
       <c r="AY20" s="3">
         <v>1</v>
       </c>
-      <c r="AZ20" s="11">
+      <c r="AZ20" s="8">
         <v>0</v>
       </c>
       <c r="BA20" s="3" t="s">
@@ -5974,79 +6193,79 @@
       <c r="C21" s="3">
         <v>4666</v>
       </c>
-      <c r="D21" s="11">
+      <c r="D21" s="8">
         <v>0.33300000000000002</v>
       </c>
       <c r="E21" s="3">
         <v>4435</v>
       </c>
-      <c r="F21" s="11">
+      <c r="F21" s="8">
         <v>0.316</v>
       </c>
       <c r="G21" s="3">
         <v>96</v>
       </c>
-      <c r="H21" s="11">
+      <c r="H21" s="8">
         <v>7.0000000000000001E-3</v>
       </c>
       <c r="I21" s="3">
         <v>114</v>
       </c>
-      <c r="J21" s="11">
+      <c r="J21" s="8">
         <v>8.0000000000000002E-3</v>
       </c>
       <c r="K21" s="3">
         <v>97</v>
       </c>
-      <c r="L21" s="11">
+      <c r="L21" s="8">
         <v>7.0000000000000001E-3</v>
       </c>
       <c r="M21" s="3">
         <v>35</v>
       </c>
-      <c r="N21" s="11">
+      <c r="N21" s="8">
         <v>2E-3</v>
       </c>
       <c r="O21" s="3">
         <v>2304</v>
       </c>
-      <c r="P21" s="11">
+      <c r="P21" s="8">
         <v>0.16400000000000001</v>
       </c>
       <c r="Q21" s="3">
         <v>335</v>
       </c>
-      <c r="R21" s="11">
+      <c r="R21" s="8">
         <v>2.4E-2</v>
       </c>
       <c r="S21" s="3">
         <v>1275</v>
       </c>
-      <c r="T21" s="11">
+      <c r="T21" s="8">
         <v>9.0999999999999998E-2</v>
       </c>
       <c r="U21" s="3">
         <v>174</v>
       </c>
-      <c r="V21" s="11">
+      <c r="V21" s="8">
         <v>1.2E-2</v>
       </c>
       <c r="W21" s="3">
         <v>109</v>
       </c>
-      <c r="X21" s="11">
+      <c r="X21" s="8">
         <v>8.0000000000000002E-3</v>
       </c>
       <c r="Y21" s="3">
         <v>61</v>
       </c>
-      <c r="Z21" s="11">
+      <c r="Z21" s="8">
         <v>4.0000000000000001E-3</v>
       </c>
       <c r="AA21" s="3">
         <v>35</v>
       </c>
-      <c r="AB21" s="11">
+      <c r="AB21" s="8">
         <v>2E-3</v>
       </c>
       <c r="AC21" s="3" t="s">
@@ -6058,13 +6277,13 @@
       <c r="AE21" s="3">
         <v>4</v>
       </c>
-      <c r="AF21" s="11">
+      <c r="AF21" s="8">
         <v>0</v>
       </c>
       <c r="AG21" s="3">
         <v>3</v>
       </c>
-      <c r="AH21" s="11">
+      <c r="AH21" s="8">
         <v>0</v>
       </c>
       <c r="AI21" s="3" t="s">
@@ -6082,55 +6301,55 @@
       <c r="AM21" s="3">
         <v>2</v>
       </c>
-      <c r="AN21" s="11">
+      <c r="AN21" s="8">
         <v>0</v>
       </c>
       <c r="AO21" s="3">
         <v>34</v>
       </c>
-      <c r="AP21" s="11">
+      <c r="AP21" s="8">
         <v>2E-3</v>
       </c>
       <c r="AQ21" s="3">
         <v>28</v>
       </c>
-      <c r="AR21" s="11">
+      <c r="AR21" s="8">
         <v>2E-3</v>
       </c>
       <c r="AS21" s="3">
         <v>56</v>
       </c>
-      <c r="AT21" s="11">
+      <c r="AT21" s="8">
         <v>4.0000000000000001E-3</v>
       </c>
       <c r="AU21" s="3">
         <v>48</v>
       </c>
-      <c r="AV21" s="11">
+      <c r="AV21" s="8">
         <v>3.0000000000000001E-3</v>
       </c>
       <c r="AW21" s="3">
         <v>57</v>
       </c>
-      <c r="AX21" s="11">
+      <c r="AX21" s="8">
         <v>4.0000000000000001E-3</v>
       </c>
       <c r="AY21" s="3">
         <v>43</v>
       </c>
-      <c r="AZ21" s="11">
+      <c r="AZ21" s="8">
         <v>3.0000000000000001E-3</v>
       </c>
       <c r="BA21" s="3">
         <v>11</v>
       </c>
-      <c r="BB21" s="11">
+      <c r="BB21" s="8">
         <v>1E-3</v>
       </c>
       <c r="BC21" s="3">
         <v>9</v>
       </c>
-      <c r="BD21" s="11">
+      <c r="BD21" s="8">
         <v>1E-3</v>
       </c>
     </row>
@@ -6144,85 +6363,85 @@
       <c r="C22" s="3">
         <v>2478</v>
       </c>
-      <c r="D22" s="11">
+      <c r="D22" s="8">
         <v>0.124</v>
       </c>
       <c r="E22" s="3">
         <v>1145</v>
       </c>
-      <c r="F22" s="11">
+      <c r="F22" s="8">
         <v>5.7000000000000002E-2</v>
       </c>
       <c r="G22" s="3">
         <v>449</v>
       </c>
-      <c r="H22" s="11">
+      <c r="H22" s="8">
         <v>2.3E-2</v>
       </c>
       <c r="I22" s="3">
         <v>770</v>
       </c>
-      <c r="J22" s="11">
+      <c r="J22" s="8">
         <v>3.9E-2</v>
       </c>
       <c r="K22" s="3">
         <v>14076</v>
       </c>
-      <c r="L22" s="11">
+      <c r="L22" s="8">
         <v>0.70699999999999996</v>
       </c>
       <c r="M22" s="3">
         <v>159</v>
       </c>
-      <c r="N22" s="11">
+      <c r="N22" s="8">
         <v>8.0000000000000002E-3</v>
       </c>
       <c r="O22" s="3">
         <v>45</v>
       </c>
-      <c r="P22" s="11">
+      <c r="P22" s="8">
         <v>2E-3</v>
       </c>
       <c r="Q22" s="3">
         <v>73</v>
       </c>
-      <c r="R22" s="11">
+      <c r="R22" s="8">
         <v>4.0000000000000001E-3</v>
       </c>
       <c r="S22" s="3">
         <v>425</v>
       </c>
-      <c r="T22" s="11">
+      <c r="T22" s="8">
         <v>2.1000000000000001E-2</v>
       </c>
       <c r="U22" s="3">
         <v>158</v>
       </c>
-      <c r="V22" s="11">
+      <c r="V22" s="8">
         <v>8.0000000000000002E-3</v>
       </c>
       <c r="W22" s="3">
         <v>18</v>
       </c>
-      <c r="X22" s="11">
+      <c r="X22" s="8">
         <v>1E-3</v>
       </c>
       <c r="Y22" s="3">
         <v>14</v>
       </c>
-      <c r="Z22" s="11">
+      <c r="Z22" s="8">
         <v>1E-3</v>
       </c>
       <c r="AA22" s="3">
         <v>31</v>
       </c>
-      <c r="AB22" s="11">
+      <c r="AB22" s="8">
         <v>2E-3</v>
       </c>
       <c r="AC22" s="3">
         <v>5</v>
       </c>
-      <c r="AD22" s="11">
+      <c r="AD22" s="8">
         <v>0</v>
       </c>
       <c r="AE22" s="3" t="s">
@@ -6246,61 +6465,61 @@
       <c r="AK22" s="3">
         <v>5</v>
       </c>
-      <c r="AL22" s="11">
+      <c r="AL22" s="8">
         <v>0</v>
       </c>
       <c r="AM22" s="3">
         <v>1</v>
       </c>
-      <c r="AN22" s="11">
+      <c r="AN22" s="8">
         <v>0</v>
       </c>
       <c r="AO22" s="3">
         <v>10</v>
       </c>
-      <c r="AP22" s="11">
+      <c r="AP22" s="8">
         <v>1E-3</v>
       </c>
       <c r="AQ22" s="3">
         <v>9</v>
       </c>
-      <c r="AR22" s="11">
+      <c r="AR22" s="8">
         <v>0</v>
       </c>
       <c r="AS22" s="3">
         <v>10</v>
       </c>
-      <c r="AT22" s="11">
+      <c r="AT22" s="8">
         <v>1E-3</v>
       </c>
       <c r="AU22" s="3">
         <v>16</v>
       </c>
-      <c r="AV22" s="11">
+      <c r="AV22" s="8">
         <v>1E-3</v>
       </c>
       <c r="AW22" s="3">
         <v>4</v>
       </c>
-      <c r="AX22" s="11">
+      <c r="AX22" s="8">
         <v>0</v>
       </c>
       <c r="AY22" s="3">
         <v>13</v>
       </c>
-      <c r="AZ22" s="11">
+      <c r="AZ22" s="8">
         <v>1E-3</v>
       </c>
       <c r="BA22" s="3">
         <v>1</v>
       </c>
-      <c r="BB22" s="11">
+      <c r="BB22" s="8">
         <v>0</v>
       </c>
       <c r="BC22" s="3">
         <v>6</v>
       </c>
-      <c r="BD22" s="11">
+      <c r="BD22" s="8">
         <v>0</v>
       </c>
     </row>
@@ -6314,13 +6533,13 @@
       <c r="C23" s="3">
         <v>1800</v>
       </c>
-      <c r="D23" s="11">
+      <c r="D23" s="8">
         <v>0.504</v>
       </c>
       <c r="E23" s="3">
         <v>1474</v>
       </c>
-      <c r="F23" s="11">
+      <c r="F23" s="8">
         <v>0.41299999999999998</v>
       </c>
       <c r="G23" s="3" t="s">
@@ -6332,7 +6551,7 @@
       <c r="I23" s="3">
         <v>4</v>
       </c>
-      <c r="J23" s="11">
+      <c r="J23" s="8">
         <v>1E-3</v>
       </c>
       <c r="K23" s="3" t="s">
@@ -6350,7 +6569,7 @@
       <c r="O23" s="3">
         <v>2</v>
       </c>
-      <c r="P23" s="11">
+      <c r="P23" s="8">
         <v>1E-3</v>
       </c>
       <c r="Q23" s="3" t="s">
@@ -6362,25 +6581,25 @@
       <c r="S23" s="3">
         <v>215</v>
       </c>
-      <c r="T23" s="11">
+      <c r="T23" s="8">
         <v>0.06</v>
       </c>
       <c r="U23" s="3">
         <v>14</v>
       </c>
-      <c r="V23" s="11">
+      <c r="V23" s="8">
         <v>4.0000000000000001E-3</v>
       </c>
       <c r="W23" s="3">
         <v>3</v>
       </c>
-      <c r="X23" s="11">
+      <c r="X23" s="8">
         <v>1E-3</v>
       </c>
       <c r="Y23" s="3">
         <v>5</v>
       </c>
-      <c r="Z23" s="11">
+      <c r="Z23" s="8">
         <v>1E-3</v>
       </c>
       <c r="AA23" s="3" t="s">
@@ -6428,13 +6647,13 @@
       <c r="AO23" s="3">
         <v>28</v>
       </c>
-      <c r="AP23" s="11">
+      <c r="AP23" s="8">
         <v>8.0000000000000002E-3</v>
       </c>
       <c r="AQ23" s="3">
         <v>19</v>
       </c>
-      <c r="AR23" s="11">
+      <c r="AR23" s="8">
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="AS23" s="3" t="s">
@@ -6452,7 +6671,7 @@
       <c r="AW23" s="3">
         <v>4</v>
       </c>
-      <c r="AX23" s="11">
+      <c r="AX23" s="8">
         <v>1E-3</v>
       </c>
       <c r="AY23" s="3" t="s">
@@ -6470,7 +6689,7 @@
       <c r="BC23" s="3">
         <v>1</v>
       </c>
-      <c r="BD23" s="11">
+      <c r="BD23" s="8">
         <v>0</v>
       </c>
     </row>
@@ -7212,4 +7431,1058 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82E45A10-3D06-7F47-BE96-99BD26788989}">
+  <dimension ref="A1:H12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="35.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="16384" width="10.83203125" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A2" s="11" t="s">
+        <v>185</v>
+      </c>
+      <c r="B2" s="10">
+        <v>0.222</v>
+      </c>
+      <c r="H2" s="10"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="B3" s="10">
+        <v>0.16400000000000001</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="B4" s="10">
+        <v>0.13500000000000001</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="B5" s="10">
+        <v>0.13100000000000001</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="B6" s="10">
+        <v>9.9000000000000005E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="B7" s="10">
+        <v>9.8000000000000004E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="B8" s="10">
+        <v>4.5999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="B9" s="10">
+        <v>4.2999999999999997E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="B10" s="10">
+        <v>2.3E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="B11" s="10">
+        <v>3.7999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B12" s="10"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E196F69E-0AA6-4B4B-8763-BC4FD8562B0F}">
+  <dimension ref="A1:C26"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="34" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.83203125" style="1"/>
+    <col min="3" max="3" width="23" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="10.83203125" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="12" t="s">
+        <v>195</v>
+      </c>
+      <c r="B2" s="9">
+        <v>0.45</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="11" t="s">
+        <v>244</v>
+      </c>
+      <c r="B3" s="10">
+        <v>0.14599999999999999</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="11" t="s">
+        <v>245</v>
+      </c>
+      <c r="B4" s="10">
+        <v>8.7599999999999997E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="12" t="s">
+        <v>198</v>
+      </c>
+      <c r="B5" s="10">
+        <v>5.7000000000000002E-3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="11" t="s">
+        <v>246</v>
+      </c>
+      <c r="B6" s="10">
+        <v>5.1000000000000004E-3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="11" t="s">
+        <v>247</v>
+      </c>
+      <c r="B7" s="10">
+        <v>3.5000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="12" t="s">
+        <v>196</v>
+      </c>
+      <c r="B8" s="10">
+        <v>2.3399999999999997E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="12" t="s">
+        <v>197</v>
+      </c>
+      <c r="B9" s="10">
+        <v>2.1899999999999999E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="12" t="s">
+        <v>199</v>
+      </c>
+      <c r="B10" s="10">
+        <v>1.9E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="12" t="s">
+        <v>200</v>
+      </c>
+      <c r="B11" s="10">
+        <v>4.4000000000000003E-3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="12" t="s">
+        <v>201</v>
+      </c>
+      <c r="B12" s="10">
+        <v>0.11700000000000001</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="12" t="s">
+        <v>157</v>
+      </c>
+      <c r="B13" s="10">
+        <v>2.63E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="12" t="s">
+        <v>202</v>
+      </c>
+      <c r="B14" s="1">
+        <v>2.7</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="12" t="s">
+        <v>155</v>
+      </c>
+      <c r="B15" s="10">
+        <v>4.1533333329999998E-2</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="12" t="s">
+        <v>120</v>
+      </c>
+      <c r="B16" s="10">
+        <v>1.46E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="12" t="s">
+        <v>203</v>
+      </c>
+      <c r="B17" s="10">
+        <v>1.46E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="12" t="s">
+        <v>204</v>
+      </c>
+      <c r="B18" s="10">
+        <v>9.4000000000000004E-3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="12" t="s">
+        <v>205</v>
+      </c>
+      <c r="B19" s="10">
+        <v>8.8000000000000005E-3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="12" t="s">
+        <v>206</v>
+      </c>
+      <c r="B20" s="10">
+        <v>8.8000000000000005E-3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="12" t="s">
+        <v>117</v>
+      </c>
+      <c r="B21" s="10">
+        <v>7.3000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="12" t="s">
+        <v>207</v>
+      </c>
+      <c r="B22" s="10">
+        <v>7.1999999999999998E-3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="12" t="s">
+        <v>208</v>
+      </c>
+      <c r="B23" s="10">
+        <v>5.8999999999999999E-3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="12" t="s">
+        <v>209</v>
+      </c>
+      <c r="B24" s="10">
+        <v>3.8E-3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="12" t="s">
+        <v>210</v>
+      </c>
+      <c r="B25" s="10">
+        <v>3.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B26" s="9">
+        <f>SUM(B2:B25)</f>
+        <v>3.7348333333300001</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{377D3D93-C543-B649-9851-3BDD1D9052CD}">
+  <dimension ref="A1:O14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I14" sqref="I14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="18.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="13" width="10.83203125" style="1"/>
+    <col min="14" max="14" width="14" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="10.83203125" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="B1" s="13" t="s">
+        <v>214</v>
+      </c>
+      <c r="D1" s="15" t="s">
+        <v>222</v>
+      </c>
+      <c r="E1" s="6"/>
+      <c r="F1" s="15" t="s">
+        <v>223</v>
+      </c>
+      <c r="G1" s="6"/>
+      <c r="H1" s="15" t="s">
+        <v>224</v>
+      </c>
+      <c r="I1" s="6"/>
+      <c r="J1" s="15" t="s">
+        <v>225</v>
+      </c>
+      <c r="K1" s="6"/>
+      <c r="L1" s="15" t="s">
+        <v>226</v>
+      </c>
+      <c r="M1" s="6"/>
+      <c r="N1" s="15" t="s">
+        <v>227</v>
+      </c>
+      <c r="O1" s="6"/>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A2" s="13" t="s">
+        <v>104</v>
+      </c>
+      <c r="B2" s="13" t="s">
+        <v>86</v>
+      </c>
+      <c r="C2" s="13" t="s">
+        <v>87</v>
+      </c>
+      <c r="D2" s="13" t="s">
+        <v>86</v>
+      </c>
+      <c r="E2" s="13" t="s">
+        <v>87</v>
+      </c>
+      <c r="F2" s="13" t="s">
+        <v>86</v>
+      </c>
+      <c r="G2" s="13" t="s">
+        <v>87</v>
+      </c>
+      <c r="H2" s="13" t="s">
+        <v>86</v>
+      </c>
+      <c r="I2" s="13" t="s">
+        <v>87</v>
+      </c>
+      <c r="J2" s="13" t="s">
+        <v>86</v>
+      </c>
+      <c r="K2" s="13" t="s">
+        <v>87</v>
+      </c>
+      <c r="L2" s="13" t="s">
+        <v>86</v>
+      </c>
+      <c r="M2" s="13" t="s">
+        <v>87</v>
+      </c>
+      <c r="N2" s="13" t="s">
+        <v>86</v>
+      </c>
+      <c r="O2" s="13" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A3" s="12" t="s">
+        <v>215</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="4">
+        <v>62280</v>
+      </c>
+      <c r="E3" s="3">
+        <v>31.3</v>
+      </c>
+      <c r="F3" s="4">
+        <v>112633</v>
+      </c>
+      <c r="G3" s="3">
+        <v>34.700000000000003</v>
+      </c>
+      <c r="H3" s="4">
+        <v>142917</v>
+      </c>
+      <c r="I3" s="3">
+        <v>37.6</v>
+      </c>
+      <c r="J3" s="3"/>
+      <c r="K3" s="3"/>
+      <c r="L3" s="4">
+        <v>135117</v>
+      </c>
+      <c r="M3" s="3">
+        <v>27.4</v>
+      </c>
+      <c r="N3" s="4">
+        <v>148443</v>
+      </c>
+      <c r="O3" s="3">
+        <v>27.4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A4" s="12" t="s">
+        <v>216</v>
+      </c>
+      <c r="B4" s="3"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="4">
+        <v>19180</v>
+      </c>
+      <c r="E4" s="3">
+        <v>9.6999999999999993</v>
+      </c>
+      <c r="F4" s="4">
+        <v>27698</v>
+      </c>
+      <c r="G4" s="3">
+        <v>8.5</v>
+      </c>
+      <c r="H4" s="4">
+        <v>35838</v>
+      </c>
+      <c r="I4" s="3">
+        <v>9.4</v>
+      </c>
+      <c r="J4" s="3"/>
+      <c r="K4" s="3"/>
+      <c r="L4" s="4">
+        <v>72553</v>
+      </c>
+      <c r="M4" s="3">
+        <v>14.7</v>
+      </c>
+      <c r="N4" s="4">
+        <v>117567</v>
+      </c>
+      <c r="O4" s="3">
+        <v>21.7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A5" s="12" t="s">
+        <v>217</v>
+      </c>
+      <c r="B5" s="3"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="4">
+        <v>71657</v>
+      </c>
+      <c r="E5" s="3">
+        <v>36.1</v>
+      </c>
+      <c r="F5" s="4">
+        <v>114961</v>
+      </c>
+      <c r="G5" s="3">
+        <v>35.5</v>
+      </c>
+      <c r="H5" s="4">
+        <v>119009</v>
+      </c>
+      <c r="I5" s="3">
+        <v>31.4</v>
+      </c>
+      <c r="J5" s="3"/>
+      <c r="K5" s="3"/>
+      <c r="L5" s="4">
+        <v>87202</v>
+      </c>
+      <c r="M5" s="3">
+        <v>17.7</v>
+      </c>
+      <c r="N5" s="4">
+        <v>84933</v>
+      </c>
+      <c r="O5" s="3">
+        <v>15.7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A6" s="12" t="s">
+        <v>218</v>
+      </c>
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="4">
+        <v>35270</v>
+      </c>
+      <c r="E6" s="3">
+        <v>17.8</v>
+      </c>
+      <c r="F6" s="4">
+        <v>48463</v>
+      </c>
+      <c r="G6" s="3">
+        <v>14.9</v>
+      </c>
+      <c r="H6" s="4">
+        <v>57688</v>
+      </c>
+      <c r="I6" s="3">
+        <v>15.2</v>
+      </c>
+      <c r="J6" s="3"/>
+      <c r="K6" s="3"/>
+      <c r="L6" s="4">
+        <v>71879</v>
+      </c>
+      <c r="M6" s="3">
+        <v>14.6</v>
+      </c>
+      <c r="N6" s="4">
+        <v>73975</v>
+      </c>
+      <c r="O6" s="3">
+        <v>13.7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A7" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3">
+        <v>0</v>
+      </c>
+      <c r="E7" s="3">
+        <v>0</v>
+      </c>
+      <c r="F7" s="3">
+        <v>0</v>
+      </c>
+      <c r="G7" s="3">
+        <v>0</v>
+      </c>
+      <c r="H7" s="3">
+        <v>0</v>
+      </c>
+      <c r="I7" s="3">
+        <v>0</v>
+      </c>
+      <c r="J7" s="3"/>
+      <c r="K7" s="3"/>
+      <c r="L7" s="4">
+        <v>61524</v>
+      </c>
+      <c r="M7" s="3">
+        <v>12.5</v>
+      </c>
+      <c r="N7" s="4">
+        <v>72340</v>
+      </c>
+      <c r="O7" s="3">
+        <v>13.4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A8" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="14">
+        <v>7287</v>
+      </c>
+      <c r="G8" s="3">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="H8" s="3">
+        <v>0</v>
+      </c>
+      <c r="I8" s="3">
+        <v>0</v>
+      </c>
+      <c r="J8" s="3"/>
+      <c r="K8" s="3"/>
+      <c r="L8" s="4">
+        <v>18037</v>
+      </c>
+      <c r="M8" s="3">
+        <v>3.7</v>
+      </c>
+      <c r="N8" s="4">
+        <v>20344</v>
+      </c>
+      <c r="O8" s="3">
+        <v>3.8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A9" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="14">
+        <v>5339</v>
+      </c>
+      <c r="G9" s="3">
+        <v>1.6</v>
+      </c>
+      <c r="H9" s="3">
+        <v>0</v>
+      </c>
+      <c r="I9" s="3">
+        <v>0</v>
+      </c>
+      <c r="J9" s="3"/>
+      <c r="K9" s="3"/>
+      <c r="L9" s="4">
+        <v>8775</v>
+      </c>
+      <c r="M9" s="3">
+        <v>1.8</v>
+      </c>
+      <c r="N9" s="4">
+        <v>7885</v>
+      </c>
+      <c r="O9" s="3">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A10" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="14">
+        <v>4322</v>
+      </c>
+      <c r="G10" s="3">
+        <v>1.3</v>
+      </c>
+      <c r="H10" s="3">
+        <v>0</v>
+      </c>
+      <c r="I10" s="3">
+        <v>0</v>
+      </c>
+      <c r="J10" s="3"/>
+      <c r="K10" s="3"/>
+      <c r="L10" s="4">
+        <v>2899</v>
+      </c>
+      <c r="M10" s="3">
+        <v>0.6</v>
+      </c>
+      <c r="N10" s="4">
+        <v>1667</v>
+      </c>
+      <c r="O10" s="3">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A11" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="4">
+        <v>10095</v>
+      </c>
+      <c r="E11" s="3">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="F11" s="4">
+        <v>2986</v>
+      </c>
+      <c r="G11" s="3">
+        <v>0.9</v>
+      </c>
+      <c r="H11" s="4">
+        <v>24155</v>
+      </c>
+      <c r="I11" s="3">
+        <v>6.4</v>
+      </c>
+      <c r="J11" s="3"/>
+      <c r="K11" s="3"/>
+      <c r="L11" s="4">
+        <v>2264</v>
+      </c>
+      <c r="M11" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="N11" s="4">
+        <v>7166</v>
+      </c>
+      <c r="O11" s="3">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A12" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3">
+        <v>186</v>
+      </c>
+      <c r="E12" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="F12" s="3">
+        <v>522</v>
+      </c>
+      <c r="G12" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="H12" s="3">
+        <v>0</v>
+      </c>
+      <c r="I12" s="3">
+        <v>0</v>
+      </c>
+      <c r="J12" s="3"/>
+      <c r="K12" s="3"/>
+      <c r="L12" s="4">
+        <v>1261</v>
+      </c>
+      <c r="M12" s="3">
+        <v>0.3</v>
+      </c>
+      <c r="N12" s="4">
+        <v>1805</v>
+      </c>
+      <c r="O12" s="3">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A13" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3">
+        <v>0</v>
+      </c>
+      <c r="I13" s="3">
+        <v>0</v>
+      </c>
+      <c r="J13" s="3"/>
+      <c r="K13" s="3"/>
+      <c r="L13" s="4">
+        <v>31318</v>
+      </c>
+      <c r="M13" s="3">
+        <v>6.4</v>
+      </c>
+      <c r="N13" s="4">
+        <v>1590</v>
+      </c>
+      <c r="O13" s="3">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A14" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="B14" s="14">
+        <v>107723</v>
+      </c>
+      <c r="D14" s="4">
+        <v>198668</v>
+      </c>
+      <c r="F14" s="4">
+        <v>324211</v>
+      </c>
+      <c r="H14" s="4">
+        <v>379607</v>
+      </c>
+      <c r="J14" s="4">
+        <v>355240</v>
+      </c>
+      <c r="L14" s="4">
+        <v>492829</v>
+      </c>
+      <c r="N14" s="4">
+        <v>541638</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2471E690-E239-7743-97C8-D0E7CA45F5A1}">
+  <dimension ref="A1:C14"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="25.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="10.83203125" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" s="12" t="s">
+        <v>230</v>
+      </c>
+      <c r="B2" s="4">
+        <v>5856590</v>
+      </c>
+      <c r="C2" s="3">
+        <v>26.3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" s="12" t="s">
+        <v>202</v>
+      </c>
+      <c r="B3" s="4">
+        <v>3737726</v>
+      </c>
+      <c r="C3" s="3">
+        <v>16.8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" s="12" t="s">
+        <v>231</v>
+      </c>
+      <c r="B4" s="4">
+        <v>1984299</v>
+      </c>
+      <c r="C4" s="3">
+        <v>8.9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" s="12" t="s">
+        <v>232</v>
+      </c>
+      <c r="B5" s="4">
+        <v>1836323</v>
+      </c>
+      <c r="C5" s="3">
+        <v>8.3000000000000007</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" s="12" t="s">
+        <v>233</v>
+      </c>
+      <c r="B6" s="4">
+        <v>1581281</v>
+      </c>
+      <c r="C6" s="3">
+        <v>7.1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7" s="12" t="s">
+        <v>234</v>
+      </c>
+      <c r="B7" s="4">
+        <v>1541751</v>
+      </c>
+      <c r="C7" s="3">
+        <v>6.9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8" s="12" t="s">
+        <v>235</v>
+      </c>
+      <c r="B8" s="4">
+        <v>984995</v>
+      </c>
+      <c r="C8" s="3">
+        <v>4.4000000000000004</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9" s="12" t="s">
+        <v>236</v>
+      </c>
+      <c r="B9" s="4">
+        <v>813563</v>
+      </c>
+      <c r="C9" s="3">
+        <v>3.7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10" s="12" t="s">
+        <v>237</v>
+      </c>
+      <c r="B10" s="4">
+        <v>778781</v>
+      </c>
+      <c r="C10" s="3">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A11" s="12" t="s">
+        <v>238</v>
+      </c>
+      <c r="B11" s="4">
+        <v>2636970</v>
+      </c>
+      <c r="C11" s="3">
+        <v>11.9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A12" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="B12" s="4">
+        <v>89434</v>
+      </c>
+      <c r="C12" s="3">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A13" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="B13" s="4">
+        <v>2842</v>
+      </c>
+      <c r="C13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A14" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="B14" s="4">
+        <v>398818</v>
+      </c>
+      <c r="C14" s="3">
+        <v>1.8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>